--- a/TXTL_template_2.1.xlsx
+++ b/TXTL_template_2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="13220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="2" r:id="rId1"/>
@@ -652,7 +652,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
@@ -838,12 +838,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -853,18 +847,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -881,6 +863,42 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1416,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1541,15 +1559,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="69">
+        <f>0.75-C13</f>
         <v>0.51</v>
       </c>
       <c r="D12" s="69">
         <f>IFERROR(C12*$K$12/B12, "")</f>
-        <v>5.3550000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E12" s="5">
         <f>D12*$I$15*$L$12*$M$12</f>
-        <v>82.466999999999999</v>
+        <v>78.539999999999992</v>
       </c>
       <c r="F12" s="17"/>
       <c r="I12" s="6">
@@ -1557,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="31">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L12" s="77">
         <v>7</v>
@@ -1579,11 +1598,11 @@
       </c>
       <c r="D13" s="69">
         <f t="shared" ref="D13:D17" si="0">IFERROR(C13*$K$12/B13, "")</f>
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="E13" s="5">
         <f>D13*$I$15*$L$12*$M$12</f>
-        <v>38.808000000000007</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="F13" s="17"/>
     </row>
@@ -1750,154 +1769,154 @@
       </c>
     </row>
     <row r="21" spans="1:16" outlineLevel="1">
-      <c r="A21" s="86">
+      <c r="A21" s="99">
         <v>1</v>
       </c>
-      <c r="B21" s="87" t="str">
+      <c r="B21" s="100" t="str">
         <f>IF(ISBLANK(Layout!B3), "", Layout!B3)</f>
         <v>A1</v>
       </c>
-      <c r="C21" s="93" t="str">
+      <c r="C21" s="101" t="str">
         <f>IF(ISBLANK(Layout!C3), "", Layout!C3)</f>
         <v>Positive Control</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="91">
         <f>IF(Layout!D3 &gt;0, $K$12 - E21 - P21, "")</f>
-        <v>1.4571126315789473</v>
-      </c>
-      <c r="E21" s="88">
+        <v>1.3877263157894737</v>
+      </c>
+      <c r="E21" s="86">
         <f>IFERROR(Layout!D3*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
-      </c>
-      <c r="F21" s="89">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="87">
         <f>IF(ISBLANK(Layout!E3), "", Layout!E3*$K$12/Stocks!$E$3)</f>
-        <v>1.1678873684210527</v>
-      </c>
-      <c r="G21" s="89" t="str">
+        <v>1.1122736842105263</v>
+      </c>
+      <c r="G21" s="87" t="str">
         <f>IF(ISBLANK(Layout!F3), "", Layout!F3*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H21" s="89" t="str">
+      <c r="H21" s="87" t="str">
         <f>IF(ISBLANK(Layout!G3), "", Layout!G3*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I21" s="89" t="str">
+      <c r="I21" s="87" t="str">
         <f>IF(ISBLANK(Layout!H3), "", Layout!H3*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J21" s="89" t="str">
+      <c r="J21" s="87" t="str">
         <f>IF(ISBLANK(Layout!I3),"",Layout!I3*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K21" s="89" t="str">
+      <c r="K21" s="87" t="str">
         <f>IF(ISBLANK(Layout!J3), "", Layout!J3*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L21" s="89" t="str">
+      <c r="L21" s="87" t="str">
         <f>IF(ISBLANK(Layout!K3), "", Layout!K3*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M21" s="89" t="str">
+      <c r="M21" s="87" t="str">
         <f>IF(ISBLANK(Layout!L3), "", Layout!L3*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N21" s="89" t="str">
+      <c r="N21" s="87" t="str">
         <f>IF(ISBLANK(Layout!M3), "", Layout!M3*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O21" s="98" t="str">
+      <c r="O21" s="92" t="str">
         <f>IF(ISBLANK(Layout!N3), "", Layout!N3*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="88">
         <f>SUM(F21:O21)</f>
-        <v>1.1678873684210527</v>
+        <v>1.1122736842105263</v>
       </c>
     </row>
     <row r="22" spans="1:16" outlineLevel="1">
-      <c r="A22" s="66">
+      <c r="A22" s="102">
         <v>2</v>
       </c>
-      <c r="B22" s="35" t="str">
+      <c r="B22" s="103" t="str">
         <f>IF(ISBLANK(Layout!B4), "", Layout!B4)</f>
         <v>B1</v>
       </c>
-      <c r="C22" s="94" t="str">
+      <c r="C22" s="104" t="str">
         <f>IF(ISBLANK(Layout!C4), "", Layout!C4)</f>
         <v>CFP 1nM, RFP 1nM</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="93">
         <f>IF(Layout!D4 &gt;0, $K$12 - E22 - P22, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E22" s="60">
         <f>IFERROR(Layout!D4*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
-      </c>
-      <c r="F22" s="91" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="F22" s="89" t="str">
         <f>IF(ISBLANK(Layout!E4), "", Layout!E4*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="89">
         <f>IF(ISBLANK(Layout!F4), "", Layout!F4*$K$12/Stocks!$E$4)</f>
-        <v>0.65326800000000007</v>
-      </c>
-      <c r="H22" s="91" t="str">
+        <v>0.62216000000000005</v>
+      </c>
+      <c r="H22" s="89" t="str">
         <f>IF(ISBLANK(Layout!G4), "", Layout!G4*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I22" s="91" t="str">
+      <c r="I22" s="89" t="str">
         <f>IF(ISBLANK(Layout!H4), "", Layout!H4*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J22" s="91">
+      <c r="J22" s="89">
         <f>IF(ISBLANK(Layout!I4),"",Layout!I4*$K$12/Stocks!$E$7)</f>
-        <v>1.2030046875</v>
-      </c>
-      <c r="K22" s="91" t="str">
+        <v>1.1457187499999999</v>
+      </c>
+      <c r="K22" s="89" t="str">
         <f>IF(ISBLANK(Layout!J4), "", Layout!J4*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L22" s="91" t="str">
+      <c r="L22" s="89" t="str">
         <f>IF(ISBLANK(Layout!K4), "", Layout!K4*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M22" s="91" t="str">
+      <c r="M22" s="89" t="str">
         <f>IF(ISBLANK(Layout!L4), "", Layout!L4*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N22" s="91" t="str">
+      <c r="N22" s="89" t="str">
         <f>IF(ISBLANK(Layout!M4), "", Layout!M4*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O22" s="100" t="str">
+      <c r="O22" s="94" t="str">
         <f>IF(ISBLANK(Layout!N4), "", Layout!N4*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P22" s="63">
         <f t="shared" ref="P22:P35" si="1">SUM(F22:O22)</f>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" outlineLevel="1">
-      <c r="A23" s="67">
+      <c r="A23" s="105">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="str">
+      <c r="B23" s="106" t="str">
         <f>IF(ISBLANK(Layout!B5), "", Layout!B5)</f>
         <v>B2</v>
       </c>
-      <c r="C23" s="95" t="str">
+      <c r="C23" s="107" t="str">
         <f>IF(ISBLANK(Layout!C5), "", Layout!C5)</f>
         <v>CFP 1nM, RFP 1/2nM</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="95">
         <f>IF(Layout!D5 &gt;0, $K$12 - E23 - P23, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E23" s="61">
         <f>IFERROR(Layout!D5*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F23" s="85" t="str">
         <f>IF(ISBLANK(Layout!E5), "", Layout!E5*$K$12/Stocks!$E$3)</f>
@@ -1905,7 +1924,7 @@
       </c>
       <c r="G23" s="85">
         <f>IF(ISBLANK(Layout!F5), "", Layout!F5*$K$12/Stocks!$E$4)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="H23" s="85" t="str">
         <f>IF(ISBLANK(Layout!G5), "", Layout!G5*$K$12/Stocks!$E$5)</f>
@@ -1921,7 +1940,7 @@
       </c>
       <c r="K23" s="85">
         <f>IF(ISBLANK(Layout!J5), "", Layout!J5*$K$12/Stocks!$E$8)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="L23" s="85" t="str">
         <f>IF(ISBLANK(Layout!K5), "", Layout!K5*$K$12/Stocks!$E$9)</f>
@@ -1935,34 +1954,34 @@
         <f>IF(ISBLANK(Layout!M5), "", Layout!M5*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O23" s="102" t="str">
+      <c r="O23" s="96" t="str">
         <f>IF(ISBLANK(Layout!N5), "", Layout!N5*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P23" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="25" customFormat="1" outlineLevel="1">
-      <c r="A24" s="67">
+      <c r="A24" s="105">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B24" s="106" t="str">
         <f>IF(ISBLANK(Layout!B6), "", Layout!B6)</f>
         <v>B3</v>
       </c>
-      <c r="C24" s="95" t="str">
+      <c r="C24" s="107" t="str">
         <f>IF(ISBLANK(Layout!C6), "", Layout!C6)</f>
         <v>CFP 1nM, RFP 1/4nM</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="95">
         <f>IF(Layout!D6 &gt;0, $K$12 - E24 - P24, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E24" s="61">
         <f>IFERROR(Layout!D6*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F24" s="85" t="str">
         <f>IF(ISBLANK(Layout!E6), "", Layout!E6*$K$12/Stocks!$E$3)</f>
@@ -1970,7 +1989,7 @@
       </c>
       <c r="G24" s="85">
         <f>IF(ISBLANK(Layout!F6), "", Layout!F6*$K$12/Stocks!$E$4)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="H24" s="85" t="str">
         <f>IF(ISBLANK(Layout!G6), "", Layout!G6*$K$12/Stocks!$E$5)</f>
@@ -1990,7 +2009,7 @@
       </c>
       <c r="L24" s="85">
         <f>IF(ISBLANK(Layout!K6), "", Layout!K6*$K$12/Stocks!$E$9)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="M24" s="85" t="str">
         <f>IF(ISBLANK(Layout!L6), "", Layout!L6*$K$12/Stocks!$E$10)</f>
@@ -2000,34 +2019,34 @@
         <f>IF(ISBLANK(Layout!M6), "", Layout!M6*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O24" s="102" t="str">
+      <c r="O24" s="96" t="str">
         <f>IF(ISBLANK(Layout!N6), "", Layout!N6*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P24" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" outlineLevel="1">
-      <c r="A25" s="67">
+      <c r="A25" s="105">
         <v>5</v>
       </c>
-      <c r="B25" s="34" t="str">
+      <c r="B25" s="106" t="str">
         <f>IF(ISBLANK(Layout!B7), "", Layout!B7)</f>
         <v>C1</v>
       </c>
-      <c r="C25" s="95" t="str">
+      <c r="C25" s="107" t="str">
         <f>IF(ISBLANK(Layout!C7), "", Layout!C7)</f>
         <v>CFP 1/2nM, RFP 1nM</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="95">
         <f>IF(Layout!D7 &gt;0, $K$12 - E25 - P25, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E25" s="61">
         <f>IFERROR(Layout!D7*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F25" s="85" t="str">
         <f>IF(ISBLANK(Layout!E7), "", Layout!E7*$K$12/Stocks!$E$3)</f>
@@ -2039,7 +2058,7 @@
       </c>
       <c r="H25" s="85">
         <f>IF(ISBLANK(Layout!G7), "", Layout!G7*$K$12/Stocks!$E$5)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="I25" s="85" t="str">
         <f>IF(ISBLANK(Layout!H7), "", Layout!H7*$K$12/Stocks!$E$6)</f>
@@ -2047,7 +2066,7 @@
       </c>
       <c r="J25" s="85">
         <f>IF(ISBLANK(Layout!I7),"",Layout!I7*$K$12/Stocks!$E$7)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="K25" s="85" t="str">
         <f>IF(ISBLANK(Layout!J7), "", Layout!J7*$K$12/Stocks!$E$8)</f>
@@ -2065,34 +2084,34 @@
         <f>IF(ISBLANK(Layout!M7), "", Layout!M7*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O25" s="102" t="str">
+      <c r="O25" s="96" t="str">
         <f>IF(ISBLANK(Layout!N7), "", Layout!N7*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P25" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" outlineLevel="1">
-      <c r="A26" s="67">
+      <c r="A26" s="105">
         <v>6</v>
       </c>
-      <c r="B26" s="34" t="str">
+      <c r="B26" s="106" t="str">
         <f>IF(ISBLANK(Layout!B8), "", Layout!B8)</f>
         <v>C2</v>
       </c>
-      <c r="C26" s="95" t="str">
+      <c r="C26" s="107" t="str">
         <f>IF(ISBLANK(Layout!C8), "", Layout!C8)</f>
         <v>CFP 1/2nM, RFP 1/2nM</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="95">
         <f>IF(Layout!D8 &gt;0, $K$12 - E26 - P26, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E26" s="61">
         <f>IFERROR(Layout!D8*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F26" s="85" t="str">
         <f>IF(ISBLANK(Layout!E8), "", Layout!E8*$K$12/Stocks!$E$3)</f>
@@ -2104,7 +2123,7 @@
       </c>
       <c r="H26" s="85">
         <f>IF(ISBLANK(Layout!G8), "", Layout!G8*$K$12/Stocks!$E$5)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="I26" s="85" t="str">
         <f>IF(ISBLANK(Layout!H8), "", Layout!H8*$K$12/Stocks!$E$6)</f>
@@ -2116,7 +2135,7 @@
       </c>
       <c r="K26" s="85">
         <f>IF(ISBLANK(Layout!J8), "", Layout!J8*$K$12/Stocks!$E$8)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="L26" s="85" t="str">
         <f>IF(ISBLANK(Layout!K8), "", Layout!K8*$K$12/Stocks!$E$9)</f>
@@ -2130,34 +2149,34 @@
         <f>IF(ISBLANK(Layout!M8), "", Layout!M8*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O26" s="102" t="str">
+      <c r="O26" s="96" t="str">
         <f>IF(ISBLANK(Layout!N8), "", Layout!N8*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P26" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" outlineLevel="1">
-      <c r="A27" s="67">
+      <c r="A27" s="105">
         <v>7</v>
       </c>
-      <c r="B27" s="34" t="str">
+      <c r="B27" s="106" t="str">
         <f>IF(ISBLANK(Layout!B9), "", Layout!B9)</f>
         <v>C3</v>
       </c>
-      <c r="C27" s="95" t="str">
+      <c r="C27" s="107" t="str">
         <f>IF(ISBLANK(Layout!C9), "", Layout!C9)</f>
         <v>CFP 1/2nM, RFP 1/4nM</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="95">
         <f>IF(Layout!D9 &gt;0, $K$12 - E27 - P27, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E27" s="61">
         <f>IFERROR(Layout!D9*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F27" s="85" t="str">
         <f>IF(ISBLANK(Layout!E9), "", Layout!E9*$K$12/Stocks!$E$3)</f>
@@ -2169,7 +2188,7 @@
       </c>
       <c r="H27" s="85">
         <f>IF(ISBLANK(Layout!G9), "", Layout!G9*$K$12/Stocks!$E$5)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="I27" s="85" t="str">
         <f>IF(ISBLANK(Layout!H9), "", Layout!H9*$K$12/Stocks!$E$6)</f>
@@ -2185,7 +2204,7 @@
       </c>
       <c r="L27" s="85">
         <f>IF(ISBLANK(Layout!K9), "", Layout!K9*$K$12/Stocks!$E$9)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="M27" s="85" t="str">
         <f>IF(ISBLANK(Layout!L9), "", Layout!L9*$K$12/Stocks!$E$10)</f>
@@ -2195,34 +2214,34 @@
         <f>IF(ISBLANK(Layout!M9), "", Layout!M9*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O27" s="102" t="str">
+      <c r="O27" s="96" t="str">
         <f>IF(ISBLANK(Layout!N9), "", Layout!N9*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P27" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" outlineLevel="1">
-      <c r="A28" s="67">
+      <c r="A28" s="105">
         <v>8</v>
       </c>
-      <c r="B28" s="34" t="str">
+      <c r="B28" s="106" t="str">
         <f>IF(ISBLANK(Layout!B10), "", Layout!B10)</f>
         <v>D1</v>
       </c>
-      <c r="C28" s="95" t="str">
+      <c r="C28" s="107" t="str">
         <f>IF(ISBLANK(Layout!C10), "", Layout!C10)</f>
         <v>CFP 1/4nM, RFP 1nM</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="95">
         <f>IF(Layout!D10 &gt;0, $K$12 - E28 - P28, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E28" s="61">
         <f>IFERROR(Layout!D10*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F28" s="85" t="str">
         <f>IF(ISBLANK(Layout!E10), "", Layout!E10*$K$12/Stocks!$E$3)</f>
@@ -2238,11 +2257,11 @@
       </c>
       <c r="I28" s="85">
         <f>IF(ISBLANK(Layout!H10), "", Layout!H10*$K$12/Stocks!$E$6)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="J28" s="85">
         <f>IF(ISBLANK(Layout!I10),"",Layout!I10*$K$12/Stocks!$E$7)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="K28" s="85" t="str">
         <f>IF(ISBLANK(Layout!J10), "", Layout!J10*$K$12/Stocks!$E$8)</f>
@@ -2260,34 +2279,34 @@
         <f>IF(ISBLANK(Layout!M10), "", Layout!M10*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O28" s="102" t="str">
+      <c r="O28" s="96" t="str">
         <f>IF(ISBLANK(Layout!N10), "", Layout!N10*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P28" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="29" spans="1:16" outlineLevel="1">
-      <c r="A29" s="67">
+      <c r="A29" s="105">
         <v>9</v>
       </c>
-      <c r="B29" s="34" t="str">
+      <c r="B29" s="106" t="str">
         <f>IF(ISBLANK(Layout!B11), "", Layout!B11)</f>
         <v>D2</v>
       </c>
-      <c r="C29" s="95" t="str">
+      <c r="C29" s="107" t="str">
         <f>IF(ISBLANK(Layout!C11), "", Layout!C11)</f>
         <v>CFP 1/4nM, RFP 1/2nM</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="95">
         <f>IF(Layout!D11 &gt;0, $K$12 - E29 - P29, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E29" s="61">
         <f>IFERROR(Layout!D11*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
+        <v>7.5</v>
       </c>
       <c r="F29" s="85" t="str">
         <f>IF(ISBLANK(Layout!E11), "", Layout!E11*$K$12/Stocks!$E$3)</f>
@@ -2303,7 +2322,7 @@
       </c>
       <c r="I29" s="85">
         <f>IF(ISBLANK(Layout!H11), "", Layout!H11*$K$12/Stocks!$E$6)</f>
-        <v>0.65326800000000007</v>
+        <v>0.62216000000000005</v>
       </c>
       <c r="J29" s="85" t="str">
         <f>IF(ISBLANK(Layout!I11),"",Layout!I11*$K$12/Stocks!$E$7)</f>
@@ -2311,7 +2330,7 @@
       </c>
       <c r="K29" s="85">
         <f>IF(ISBLANK(Layout!J11), "", Layout!J11*$K$12/Stocks!$E$8)</f>
-        <v>1.2030046875</v>
+        <v>1.1457187499999999</v>
       </c>
       <c r="L29" s="85" t="str">
         <f>IF(ISBLANK(Layout!K11), "", Layout!K11*$K$12/Stocks!$E$9)</f>
@@ -2325,93 +2344,93 @@
         <f>IF(ISBLANK(Layout!M11), "", Layout!M11*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O29" s="102" t="str">
+      <c r="O29" s="96" t="str">
         <f>IF(ISBLANK(Layout!N11), "", Layout!N11*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P29" s="64">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="30" spans="1:16" outlineLevel="1">
-      <c r="A30" s="68">
+      <c r="A30" s="108">
         <v>10</v>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="109" t="str">
         <f>IF(ISBLANK(Layout!B12), "", Layout!B12)</f>
         <v>D3</v>
       </c>
-      <c r="C30" s="96" t="str">
+      <c r="C30" s="110" t="str">
         <f>IF(ISBLANK(Layout!C12), "", Layout!C12)</f>
         <v>CFP 1/4nM, RFP 1/4nM</v>
       </c>
-      <c r="D30" s="103">
+      <c r="D30" s="97">
         <f>IF(Layout!D12 &gt;0, $K$12 - E30 - P30, "")</f>
-        <v>0.76872731249999982</v>
+        <v>0.73212125000000006</v>
       </c>
       <c r="E30" s="62">
         <f>IFERROR(Layout!D12*SUM($D$12:$D$17), "")</f>
-        <v>7.875</v>
-      </c>
-      <c r="F30" s="92" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="F30" s="90" t="str">
         <f>IF(ISBLANK(Layout!E12), "", Layout!E12*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G30" s="92" t="str">
+      <c r="G30" s="90" t="str">
         <f>IF(ISBLANK(Layout!F12), "", Layout!F12*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H30" s="92" t="str">
+      <c r="H30" s="90" t="str">
         <f>IF(ISBLANK(Layout!G12), "", Layout!G12*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I30" s="92">
+      <c r="I30" s="90">
         <f>IF(ISBLANK(Layout!H12), "", Layout!H12*$K$12/Stocks!$E$6)</f>
-        <v>0.65326800000000007</v>
-      </c>
-      <c r="J30" s="92" t="str">
+        <v>0.62216000000000005</v>
+      </c>
+      <c r="J30" s="90" t="str">
         <f>IF(ISBLANK(Layout!I12),"",Layout!I12*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K30" s="92" t="str">
+      <c r="K30" s="90" t="str">
         <f>IF(ISBLANK(Layout!J12), "", Layout!J12*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L30" s="92">
+      <c r="L30" s="90">
         <f>IF(ISBLANK(Layout!K12), "", Layout!K12*$K$12/Stocks!$E$9)</f>
-        <v>1.2030046875</v>
-      </c>
-      <c r="M30" s="92" t="str">
+        <v>1.1457187499999999</v>
+      </c>
+      <c r="M30" s="90" t="str">
         <f>IF(ISBLANK(Layout!L12), "", Layout!L12*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N30" s="92" t="str">
+      <c r="N30" s="90" t="str">
         <f>IF(ISBLANK(Layout!M12), "", Layout!M12*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O30" s="104" t="str">
+      <c r="O30" s="98" t="str">
         <f>IF(ISBLANK(Layout!N12), "", Layout!N12*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
       <c r="P30" s="65">
         <f t="shared" si="1"/>
-        <v>1.8562726875000002</v>
+        <v>1.7678787499999999</v>
       </c>
     </row>
     <row r="31" spans="1:16" outlineLevel="1">
-      <c r="A31" s="67">
+      <c r="A31" s="105">
         <v>11</v>
       </c>
-      <c r="B31" s="34" t="str">
+      <c r="B31" s="106" t="str">
         <f>IF(ISBLANK(Layout!B13), "", Layout!B13)</f>
         <v/>
       </c>
-      <c r="C31" s="95" t="str">
+      <c r="C31" s="107" t="str">
         <f>IF(ISBLANK(Layout!C13), "", Layout!C13)</f>
         <v/>
       </c>
-      <c r="D31" s="101" t="str">
+      <c r="D31" s="95" t="str">
         <f>IF(Layout!D13 &gt;0, $K$12 - E31 - P31, "")</f>
         <v/>
       </c>
@@ -2455,7 +2474,7 @@
         <f>IF(ISBLANK(Layout!M13), "", Layout!M13*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O31" s="102" t="str">
+      <c r="O31" s="96" t="str">
         <f>IF(ISBLANK(Layout!N13), "", Layout!N13*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2465,18 +2484,18 @@
       </c>
     </row>
     <row r="32" spans="1:16" outlineLevel="1">
-      <c r="A32" s="68">
+      <c r="A32" s="108">
         <v>12</v>
       </c>
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="109" t="str">
         <f>IF(ISBLANK(Layout!B14), "", Layout!B14)</f>
         <v/>
       </c>
-      <c r="C32" s="96" t="str">
+      <c r="C32" s="110" t="str">
         <f>IF(ISBLANK(Layout!C14), "", Layout!C14)</f>
         <v/>
       </c>
-      <c r="D32" s="103" t="str">
+      <c r="D32" s="97" t="str">
         <f>IF(Layout!D14 &gt;0, $K$12 - E32 - P32, "")</f>
         <v/>
       </c>
@@ -2484,43 +2503,43 @@
         <f>IFERROR(Layout!D14*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F32" s="92" t="str">
+      <c r="F32" s="90" t="str">
         <f>IF(ISBLANK(Layout!E14), "", Layout!E14*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G32" s="92" t="str">
+      <c r="G32" s="90" t="str">
         <f>IF(ISBLANK(Layout!F14), "", Layout!F14*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H32" s="92" t="str">
+      <c r="H32" s="90" t="str">
         <f>IF(ISBLANK(Layout!G14), "", Layout!G14*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I32" s="92" t="str">
+      <c r="I32" s="90" t="str">
         <f>IF(ISBLANK(Layout!H14), "", Layout!H14*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J32" s="92" t="str">
+      <c r="J32" s="90" t="str">
         <f>IF(ISBLANK(Layout!I14),"",Layout!I14*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K32" s="92" t="str">
+      <c r="K32" s="90" t="str">
         <f>IF(ISBLANK(Layout!J14), "", Layout!J14*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L32" s="92" t="str">
+      <c r="L32" s="90" t="str">
         <f>IF(ISBLANK(Layout!K14), "", Layout!K14*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M32" s="92" t="str">
+      <c r="M32" s="90" t="str">
         <f>IF(ISBLANK(Layout!L14), "", Layout!L14*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N32" s="92" t="str">
+      <c r="N32" s="90" t="str">
         <f>IF(ISBLANK(Layout!M14), "", Layout!M14*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O32" s="104" t="str">
+      <c r="O32" s="98" t="str">
         <f>IF(ISBLANK(Layout!N14), "", Layout!N14*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2530,18 +2549,18 @@
       </c>
     </row>
     <row r="33" spans="1:16" outlineLevel="1">
-      <c r="A33" s="66">
+      <c r="A33" s="102">
         <v>13</v>
       </c>
-      <c r="B33" s="35" t="str">
+      <c r="B33" s="103" t="str">
         <f>IF(ISBLANK(Layout!B15), "", Layout!B15)</f>
         <v/>
       </c>
-      <c r="C33" s="94" t="str">
+      <c r="C33" s="104" t="str">
         <f>IF(ISBLANK(Layout!C15), "", Layout!C15)</f>
         <v/>
       </c>
-      <c r="D33" s="99" t="str">
+      <c r="D33" s="93" t="str">
         <f>IF(Layout!D15 &gt;0, $K$12 - E33 - P33, "")</f>
         <v/>
       </c>
@@ -2549,43 +2568,43 @@
         <f>IFERROR(Layout!D15*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F33" s="91" t="str">
+      <c r="F33" s="89" t="str">
         <f>IF(ISBLANK(Layout!E15), "", Layout!E15*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G33" s="91" t="str">
+      <c r="G33" s="89" t="str">
         <f>IF(ISBLANK(Layout!F15), "", Layout!F15*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H33" s="91" t="str">
+      <c r="H33" s="89" t="str">
         <f>IF(ISBLANK(Layout!G15), "", Layout!G15*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I33" s="91" t="str">
+      <c r="I33" s="89" t="str">
         <f>IF(ISBLANK(Layout!H15), "", Layout!H15*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J33" s="91" t="str">
+      <c r="J33" s="89" t="str">
         <f>IF(ISBLANK(Layout!I15),"",Layout!I15*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K33" s="91" t="str">
+      <c r="K33" s="89" t="str">
         <f>IF(ISBLANK(Layout!J15), "", Layout!J15*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L33" s="91" t="str">
+      <c r="L33" s="89" t="str">
         <f>IF(ISBLANK(Layout!K15), "", Layout!K15*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M33" s="91" t="str">
+      <c r="M33" s="89" t="str">
         <f>IF(ISBLANK(Layout!L15), "", Layout!L15*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N33" s="91" t="str">
+      <c r="N33" s="89" t="str">
         <f>IF(ISBLANK(Layout!M15), "", Layout!M15*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O33" s="100" t="str">
+      <c r="O33" s="94" t="str">
         <f>IF(ISBLANK(Layout!N15), "", Layout!N15*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2595,18 +2614,18 @@
       </c>
     </row>
     <row r="34" spans="1:16" outlineLevel="1">
-      <c r="A34" s="67">
+      <c r="A34" s="105">
         <v>14</v>
       </c>
-      <c r="B34" s="34" t="str">
+      <c r="B34" s="106" t="str">
         <f>IF(ISBLANK(Layout!B16), "", Layout!B16)</f>
         <v/>
       </c>
-      <c r="C34" s="95" t="str">
+      <c r="C34" s="107" t="str">
         <f>IF(ISBLANK(Layout!C16), "", Layout!C16)</f>
         <v/>
       </c>
-      <c r="D34" s="101" t="str">
+      <c r="D34" s="95" t="str">
         <f>IF(Layout!D16 &gt;0, $K$12 - E34 - P34, "")</f>
         <v/>
       </c>
@@ -2650,7 +2669,7 @@
         <f>IF(ISBLANK(Layout!M16), "", Layout!M16*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O34" s="102" t="str">
+      <c r="O34" s="96" t="str">
         <f>IF(ISBLANK(Layout!N16), "", Layout!N16*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2660,18 +2679,18 @@
       </c>
     </row>
     <row r="35" spans="1:16" outlineLevel="1">
-      <c r="A35" s="67">
+      <c r="A35" s="105">
         <v>15</v>
       </c>
-      <c r="B35" s="34" t="str">
+      <c r="B35" s="106" t="str">
         <f>IF(ISBLANK(Layout!B17), "", Layout!B17)</f>
         <v/>
       </c>
-      <c r="C35" s="95" t="str">
+      <c r="C35" s="107" t="str">
         <f>IF(ISBLANK(Layout!C17), "", Layout!C17)</f>
         <v/>
       </c>
-      <c r="D35" s="101" t="str">
+      <c r="D35" s="95" t="str">
         <f>IF(Layout!D17 &gt;0, $K$12 - E35 - P35, "")</f>
         <v/>
       </c>
@@ -2715,7 +2734,7 @@
         <f>IF(ISBLANK(Layout!M17), "", Layout!M17*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O35" s="102" t="str">
+      <c r="O35" s="96" t="str">
         <f>IF(ISBLANK(Layout!N17), "", Layout!N17*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2725,18 +2744,18 @@
       </c>
     </row>
     <row r="36" spans="1:16" outlineLevel="1">
-      <c r="A36" s="67">
+      <c r="A36" s="105">
         <v>16</v>
       </c>
-      <c r="B36" s="34" t="str">
+      <c r="B36" s="106" t="str">
         <f>IF(ISBLANK(Layout!B18), "", Layout!B18)</f>
         <v/>
       </c>
-      <c r="C36" s="95" t="str">
+      <c r="C36" s="107" t="str">
         <f>IF(ISBLANK(Layout!C18), "", Layout!C18)</f>
         <v/>
       </c>
-      <c r="D36" s="101" t="str">
+      <c r="D36" s="95" t="str">
         <f>IF(Layout!D18 &gt;0, $K$12 - E36 - P36, "")</f>
         <v/>
       </c>
@@ -2780,7 +2799,7 @@
         <f>IF(ISBLANK(Layout!M18), "", Layout!M18*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O36" s="102" t="str">
+      <c r="O36" s="96" t="str">
         <f>IF(ISBLANK(Layout!N18), "", Layout!N18*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2790,18 +2809,18 @@
       </c>
     </row>
     <row r="37" spans="1:16" outlineLevel="1">
-      <c r="A37" s="67">
+      <c r="A37" s="105">
         <v>17</v>
       </c>
-      <c r="B37" s="34" t="str">
+      <c r="B37" s="106" t="str">
         <f>IF(ISBLANK(Layout!B19), "", Layout!B19)</f>
         <v/>
       </c>
-      <c r="C37" s="95" t="str">
+      <c r="C37" s="107" t="str">
         <f>IF(ISBLANK(Layout!C19), "", Layout!C19)</f>
         <v/>
       </c>
-      <c r="D37" s="101" t="str">
+      <c r="D37" s="95" t="str">
         <f>IF(Layout!D19 &gt;0, $K$12 - E37 - P37, "")</f>
         <v/>
       </c>
@@ -2845,7 +2864,7 @@
         <f>IF(ISBLANK(Layout!M19), "", Layout!M19*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O37" s="102" t="str">
+      <c r="O37" s="96" t="str">
         <f>IF(ISBLANK(Layout!N19), "", Layout!N19*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2855,18 +2874,18 @@
       </c>
     </row>
     <row r="38" spans="1:16" outlineLevel="1">
-      <c r="A38" s="67">
+      <c r="A38" s="105">
         <v>18</v>
       </c>
-      <c r="B38" s="34" t="str">
+      <c r="B38" s="106" t="str">
         <f>IF(ISBLANK(Layout!B20), "", Layout!B20)</f>
         <v/>
       </c>
-      <c r="C38" s="95" t="str">
+      <c r="C38" s="107" t="str">
         <f>IF(ISBLANK(Layout!C20), "", Layout!C20)</f>
         <v/>
       </c>
-      <c r="D38" s="101" t="str">
+      <c r="D38" s="95" t="str">
         <f>IF(Layout!D20 &gt;0, $K$12 - E38 - P38, "")</f>
         <v/>
       </c>
@@ -2910,7 +2929,7 @@
         <f>IF(ISBLANK(Layout!M20), "", Layout!M20*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O38" s="102" t="str">
+      <c r="O38" s="96" t="str">
         <f>IF(ISBLANK(Layout!N20), "", Layout!N20*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2920,18 +2939,18 @@
       </c>
     </row>
     <row r="39" spans="1:16" outlineLevel="1">
-      <c r="A39" s="67">
+      <c r="A39" s="105">
         <v>19</v>
       </c>
-      <c r="B39" s="34" t="str">
+      <c r="B39" s="106" t="str">
         <f>IF(ISBLANK(Layout!B21), "", Layout!B21)</f>
         <v/>
       </c>
-      <c r="C39" s="95" t="str">
+      <c r="C39" s="107" t="str">
         <f>IF(ISBLANK(Layout!C21), "", Layout!C21)</f>
         <v/>
       </c>
-      <c r="D39" s="101" t="str">
+      <c r="D39" s="95" t="str">
         <f>IF(Layout!D21 &gt;0, $K$12 - E39 - P39, "")</f>
         <v/>
       </c>
@@ -2975,7 +2994,7 @@
         <f>IF(ISBLANK(Layout!M21), "", Layout!M21*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O39" s="102" t="str">
+      <c r="O39" s="96" t="str">
         <f>IF(ISBLANK(Layout!N21), "", Layout!N21*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -2985,18 +3004,18 @@
       </c>
     </row>
     <row r="40" spans="1:16" outlineLevel="1">
-      <c r="A40" s="67">
+      <c r="A40" s="105">
         <v>20</v>
       </c>
-      <c r="B40" s="34" t="str">
+      <c r="B40" s="106" t="str">
         <f>IF(ISBLANK(Layout!B22), "", Layout!B22)</f>
         <v/>
       </c>
-      <c r="C40" s="95" t="str">
+      <c r="C40" s="107" t="str">
         <f>IF(ISBLANK(Layout!C22), "", Layout!C22)</f>
         <v/>
       </c>
-      <c r="D40" s="101" t="str">
+      <c r="D40" s="95" t="str">
         <f>IF(Layout!D22 &gt;0, $K$12 - E40 - P40, "")</f>
         <v/>
       </c>
@@ -3040,7 +3059,7 @@
         <f>IF(ISBLANK(Layout!M22), "", Layout!M22*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O40" s="102" t="str">
+      <c r="O40" s="96" t="str">
         <f>IF(ISBLANK(Layout!N22), "", Layout!N22*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3050,18 +3069,18 @@
       </c>
     </row>
     <row r="41" spans="1:16" outlineLevel="1">
-      <c r="A41" s="67">
+      <c r="A41" s="105">
         <v>21</v>
       </c>
-      <c r="B41" s="34" t="str">
+      <c r="B41" s="106" t="str">
         <f>IF(ISBLANK(Layout!B23), "", Layout!B23)</f>
         <v/>
       </c>
-      <c r="C41" s="95" t="str">
+      <c r="C41" s="107" t="str">
         <f>IF(ISBLANK(Layout!C23), "", Layout!C23)</f>
         <v/>
       </c>
-      <c r="D41" s="101" t="str">
+      <c r="D41" s="95" t="str">
         <f>IF(Layout!D23 &gt;0, $K$12 - E41 - P41, "")</f>
         <v/>
       </c>
@@ -3105,7 +3124,7 @@
         <f>IF(ISBLANK(Layout!M23), "", Layout!M23*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O41" s="102" t="str">
+      <c r="O41" s="96" t="str">
         <f>IF(ISBLANK(Layout!N23), "", Layout!N23*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3115,18 +3134,18 @@
       </c>
     </row>
     <row r="42" spans="1:16" outlineLevel="1">
-      <c r="A42" s="67">
+      <c r="A42" s="105">
         <v>22</v>
       </c>
-      <c r="B42" s="34" t="str">
+      <c r="B42" s="106" t="str">
         <f>IF(ISBLANK(Layout!B24), "", Layout!B24)</f>
         <v/>
       </c>
-      <c r="C42" s="95" t="str">
+      <c r="C42" s="107" t="str">
         <f>IF(ISBLANK(Layout!C24), "", Layout!C24)</f>
         <v/>
       </c>
-      <c r="D42" s="101" t="str">
+      <c r="D42" s="95" t="str">
         <f>IF(Layout!D24 &gt;0, $K$12 - E42 - P42, "")</f>
         <v/>
       </c>
@@ -3170,7 +3189,7 @@
         <f>IF(ISBLANK(Layout!M24), "", Layout!M24*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O42" s="102" t="str">
+      <c r="O42" s="96" t="str">
         <f>IF(ISBLANK(Layout!N24), "", Layout!N24*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3180,18 +3199,18 @@
       </c>
     </row>
     <row r="43" spans="1:16" outlineLevel="1">
-      <c r="A43" s="67">
+      <c r="A43" s="105">
         <v>23</v>
       </c>
-      <c r="B43" s="34" t="str">
+      <c r="B43" s="106" t="str">
         <f>IF(ISBLANK(Layout!B25), "", Layout!B25)</f>
         <v/>
       </c>
-      <c r="C43" s="95" t="str">
+      <c r="C43" s="107" t="str">
         <f>IF(ISBLANK(Layout!C25), "", Layout!C25)</f>
         <v/>
       </c>
-      <c r="D43" s="101" t="str">
+      <c r="D43" s="95" t="str">
         <f>IF(Layout!D25 &gt;0, $K$12 - E43 - P43, "")</f>
         <v/>
       </c>
@@ -3235,7 +3254,7 @@
         <f>IF(ISBLANK(Layout!M25), "", Layout!M25*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O43" s="102" t="str">
+      <c r="O43" s="96" t="str">
         <f>IF(ISBLANK(Layout!N25), "", Layout!N25*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3245,18 +3264,18 @@
       </c>
     </row>
     <row r="44" spans="1:16" outlineLevel="1">
-      <c r="A44" s="68">
+      <c r="A44" s="108">
         <v>24</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="109" t="str">
         <f>IF(ISBLANK(Layout!B26), "", Layout!B26)</f>
         <v/>
       </c>
-      <c r="C44" s="96" t="str">
+      <c r="C44" s="110" t="str">
         <f>IF(ISBLANK(Layout!C26), "", Layout!C26)</f>
         <v/>
       </c>
-      <c r="D44" s="103" t="str">
+      <c r="D44" s="97" t="str">
         <f>IF(Layout!D26 &gt;0, $K$12 - E44 - P44, "")</f>
         <v/>
       </c>
@@ -3264,43 +3283,43 @@
         <f>IFERROR(Layout!D26*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F44" s="92" t="str">
+      <c r="F44" s="90" t="str">
         <f>IF(ISBLANK(Layout!E26), "", Layout!E26*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G44" s="92" t="str">
+      <c r="G44" s="90" t="str">
         <f>IF(ISBLANK(Layout!F26), "", Layout!F26*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H44" s="92" t="str">
+      <c r="H44" s="90" t="str">
         <f>IF(ISBLANK(Layout!G26), "", Layout!G26*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I44" s="92" t="str">
+      <c r="I44" s="90" t="str">
         <f>IF(ISBLANK(Layout!H26), "", Layout!H26*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J44" s="92" t="str">
+      <c r="J44" s="90" t="str">
         <f>IF(ISBLANK(Layout!I26),"",Layout!I26*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K44" s="92" t="str">
+      <c r="K44" s="90" t="str">
         <f>IF(ISBLANK(Layout!J26), "", Layout!J26*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L44" s="92" t="str">
+      <c r="L44" s="90" t="str">
         <f>IF(ISBLANK(Layout!K26), "", Layout!K26*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M44" s="92" t="str">
+      <c r="M44" s="90" t="str">
         <f>IF(ISBLANK(Layout!L26), "", Layout!L26*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N44" s="92" t="str">
+      <c r="N44" s="90" t="str">
         <f>IF(ISBLANK(Layout!M26), "", Layout!M26*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O44" s="104" t="str">
+      <c r="O44" s="98" t="str">
         <f>IF(ISBLANK(Layout!N26), "", Layout!N26*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3310,18 +3329,18 @@
       </c>
     </row>
     <row r="45" spans="1:16" outlineLevel="1">
-      <c r="A45" s="66">
+      <c r="A45" s="102">
         <v>25</v>
       </c>
-      <c r="B45" s="35" t="str">
+      <c r="B45" s="103" t="str">
         <f>IF(ISBLANK(Layout!B27), "", Layout!B27)</f>
         <v/>
       </c>
-      <c r="C45" s="94" t="str">
+      <c r="C45" s="104" t="str">
         <f>IF(ISBLANK(Layout!C27), "", Layout!C27)</f>
         <v/>
       </c>
-      <c r="D45" s="99" t="str">
+      <c r="D45" s="93" t="str">
         <f>IF(Layout!D27 &gt;0, $K$12 - E45 - P45, "")</f>
         <v/>
       </c>
@@ -3329,43 +3348,43 @@
         <f>IFERROR(Layout!D27*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F45" s="91" t="str">
+      <c r="F45" s="89" t="str">
         <f>IF(ISBLANK(Layout!E27), "", Layout!E27*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G45" s="91" t="str">
+      <c r="G45" s="89" t="str">
         <f>IF(ISBLANK(Layout!F27), "", Layout!F27*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H45" s="91" t="str">
+      <c r="H45" s="89" t="str">
         <f>IF(ISBLANK(Layout!G27), "", Layout!G27*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I45" s="91" t="str">
+      <c r="I45" s="89" t="str">
         <f>IF(ISBLANK(Layout!H27), "", Layout!H27*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J45" s="91" t="str">
+      <c r="J45" s="89" t="str">
         <f>IF(ISBLANK(Layout!I27),"",Layout!I27*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K45" s="91" t="str">
+      <c r="K45" s="89" t="str">
         <f>IF(ISBLANK(Layout!J27), "", Layout!J27*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L45" s="91" t="str">
+      <c r="L45" s="89" t="str">
         <f>IF(ISBLANK(Layout!K27), "", Layout!K27*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M45" s="91" t="str">
+      <c r="M45" s="89" t="str">
         <f>IF(ISBLANK(Layout!L27), "", Layout!L27*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N45" s="91" t="str">
+      <c r="N45" s="89" t="str">
         <f>IF(ISBLANK(Layout!M27), "", Layout!M27*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O45" s="100" t="str">
+      <c r="O45" s="94" t="str">
         <f>IF(ISBLANK(Layout!N27), "", Layout!N27*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3375,18 +3394,18 @@
       </c>
     </row>
     <row r="46" spans="1:16" outlineLevel="1">
-      <c r="A46" s="67">
+      <c r="A46" s="105">
         <v>26</v>
       </c>
-      <c r="B46" s="34" t="str">
+      <c r="B46" s="106" t="str">
         <f>IF(ISBLANK(Layout!B28), "", Layout!B28)</f>
         <v/>
       </c>
-      <c r="C46" s="95" t="str">
+      <c r="C46" s="107" t="str">
         <f>IF(ISBLANK(Layout!C28), "", Layout!C28)</f>
         <v/>
       </c>
-      <c r="D46" s="101" t="str">
+      <c r="D46" s="95" t="str">
         <f>IF(Layout!D28 &gt;0, $K$12 - E46 - P46, "")</f>
         <v/>
       </c>
@@ -3430,7 +3449,7 @@
         <f>IF(ISBLANK(Layout!M28), "", Layout!M28*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O46" s="102" t="str">
+      <c r="O46" s="96" t="str">
         <f>IF(ISBLANK(Layout!N28), "", Layout!N28*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3440,18 +3459,18 @@
       </c>
     </row>
     <row r="47" spans="1:16" outlineLevel="1">
-      <c r="A47" s="67">
+      <c r="A47" s="105">
         <v>27</v>
       </c>
-      <c r="B47" s="34" t="str">
+      <c r="B47" s="106" t="str">
         <f>IF(ISBLANK(Layout!B29), "", Layout!B29)</f>
         <v/>
       </c>
-      <c r="C47" s="95" t="str">
+      <c r="C47" s="107" t="str">
         <f>IF(ISBLANK(Layout!C29), "", Layout!C29)</f>
         <v/>
       </c>
-      <c r="D47" s="101" t="str">
+      <c r="D47" s="95" t="str">
         <f>IF(Layout!D29 &gt;0, $K$12 - E47 - P47, "")</f>
         <v/>
       </c>
@@ -3495,7 +3514,7 @@
         <f>IF(ISBLANK(Layout!M29), "", Layout!M29*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O47" s="102" t="str">
+      <c r="O47" s="96" t="str">
         <f>IF(ISBLANK(Layout!N29), "", Layout!N29*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3505,18 +3524,18 @@
       </c>
     </row>
     <row r="48" spans="1:16" outlineLevel="1">
-      <c r="A48" s="67">
+      <c r="A48" s="105">
         <v>28</v>
       </c>
-      <c r="B48" s="34" t="str">
+      <c r="B48" s="106" t="str">
         <f>IF(ISBLANK(Layout!B30), "", Layout!B30)</f>
         <v/>
       </c>
-      <c r="C48" s="95" t="str">
+      <c r="C48" s="107" t="str">
         <f>IF(ISBLANK(Layout!C30), "", Layout!C30)</f>
         <v/>
       </c>
-      <c r="D48" s="101" t="str">
+      <c r="D48" s="95" t="str">
         <f>IF(Layout!D30 &gt;0, $K$12 - E48 - P48, "")</f>
         <v/>
       </c>
@@ -3560,7 +3579,7 @@
         <f>IF(ISBLANK(Layout!M30), "", Layout!M30*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O48" s="102" t="str">
+      <c r="O48" s="96" t="str">
         <f>IF(ISBLANK(Layout!N30), "", Layout!N30*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3570,18 +3589,18 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A49" s="67">
+      <c r="A49" s="105">
         <v>29</v>
       </c>
-      <c r="B49" s="34" t="str">
+      <c r="B49" s="106" t="str">
         <f>IF(ISBLANK(Layout!B31), "", Layout!B31)</f>
         <v/>
       </c>
-      <c r="C49" s="95" t="str">
+      <c r="C49" s="107" t="str">
         <f>IF(ISBLANK(Layout!C31), "", Layout!C31)</f>
         <v/>
       </c>
-      <c r="D49" s="101" t="str">
+      <c r="D49" s="95" t="str">
         <f>IF(Layout!D31 &gt;0, $K$12 - E49 - P49, "")</f>
         <v/>
       </c>
@@ -3625,7 +3644,7 @@
         <f>IF(ISBLANK(Layout!M31), "", Layout!M31*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O49" s="102" t="str">
+      <c r="O49" s="96" t="str">
         <f>IF(ISBLANK(Layout!N31), "", Layout!N31*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3635,18 +3654,18 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="67">
+      <c r="A50" s="105">
         <v>30</v>
       </c>
-      <c r="B50" s="34" t="str">
+      <c r="B50" s="106" t="str">
         <f>IF(ISBLANK(Layout!B32), "", Layout!B32)</f>
         <v/>
       </c>
-      <c r="C50" s="95" t="str">
+      <c r="C50" s="107" t="str">
         <f>IF(ISBLANK(Layout!C32), "", Layout!C32)</f>
         <v/>
       </c>
-      <c r="D50" s="101" t="str">
+      <c r="D50" s="95" t="str">
         <f>IF(Layout!D32 &gt;0, $K$12 - E50 - P50, "")</f>
         <v/>
       </c>
@@ -3690,7 +3709,7 @@
         <f>IF(ISBLANK(Layout!M32), "", Layout!M32*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O50" s="102" t="str">
+      <c r="O50" s="96" t="str">
         <f>IF(ISBLANK(Layout!N32), "", Layout!N32*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3700,18 +3719,18 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="67">
+      <c r="A51" s="105">
         <v>31</v>
       </c>
-      <c r="B51" s="34" t="str">
+      <c r="B51" s="106" t="str">
         <f>IF(ISBLANK(Layout!B33), "", Layout!B33)</f>
         <v/>
       </c>
-      <c r="C51" s="95" t="str">
+      <c r="C51" s="107" t="str">
         <f>IF(ISBLANK(Layout!C33), "", Layout!C33)</f>
         <v/>
       </c>
-      <c r="D51" s="101" t="str">
+      <c r="D51" s="95" t="str">
         <f>IF(Layout!D33 &gt;0, $K$12 - E51 - P51, "")</f>
         <v/>
       </c>
@@ -3755,7 +3774,7 @@
         <f>IF(ISBLANK(Layout!M33), "", Layout!M33*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O51" s="102" t="str">
+      <c r="O51" s="96" t="str">
         <f>IF(ISBLANK(Layout!N33), "", Layout!N33*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3765,18 +3784,18 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="67">
+      <c r="A52" s="105">
         <v>32</v>
       </c>
-      <c r="B52" s="34" t="str">
+      <c r="B52" s="106" t="str">
         <f>IF(ISBLANK(Layout!B34), "", Layout!B34)</f>
         <v/>
       </c>
-      <c r="C52" s="95" t="str">
+      <c r="C52" s="107" t="str">
         <f>IF(ISBLANK(Layout!C34), "", Layout!C34)</f>
         <v/>
       </c>
-      <c r="D52" s="101" t="str">
+      <c r="D52" s="95" t="str">
         <f>IF(Layout!D34 &gt;0, $K$12 - E52 - P52, "")</f>
         <v/>
       </c>
@@ -3820,7 +3839,7 @@
         <f>IF(ISBLANK(Layout!M34), "", Layout!M34*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O52" s="102" t="str">
+      <c r="O52" s="96" t="str">
         <f>IF(ISBLANK(Layout!N34), "", Layout!N34*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3830,18 +3849,18 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="67">
+      <c r="A53" s="105">
         <v>33</v>
       </c>
-      <c r="B53" s="34" t="str">
+      <c r="B53" s="106" t="str">
         <f>IF(ISBLANK(Layout!B35), "", Layout!B35)</f>
         <v/>
       </c>
-      <c r="C53" s="95" t="str">
+      <c r="C53" s="107" t="str">
         <f>IF(ISBLANK(Layout!C35), "", Layout!C35)</f>
         <v/>
       </c>
-      <c r="D53" s="101" t="str">
+      <c r="D53" s="95" t="str">
         <f>IF(Layout!D35 &gt;0, $K$12 - E53 - P53, "")</f>
         <v/>
       </c>
@@ -3885,7 +3904,7 @@
         <f>IF(ISBLANK(Layout!M35), "", Layout!M35*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O53" s="102" t="str">
+      <c r="O53" s="96" t="str">
         <f>IF(ISBLANK(Layout!N35), "", Layout!N35*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3895,18 +3914,18 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="67">
+      <c r="A54" s="105">
         <v>34</v>
       </c>
-      <c r="B54" s="34" t="str">
+      <c r="B54" s="106" t="str">
         <f>IF(ISBLANK(Layout!B36), "", Layout!B36)</f>
         <v/>
       </c>
-      <c r="C54" s="95" t="str">
+      <c r="C54" s="107" t="str">
         <f>IF(ISBLANK(Layout!C36), "", Layout!C36)</f>
         <v/>
       </c>
-      <c r="D54" s="101" t="str">
+      <c r="D54" s="95" t="str">
         <f>IF(Layout!D36 &gt;0, $K$12 - E54 - P54, "")</f>
         <v/>
       </c>
@@ -3950,7 +3969,7 @@
         <f>IF(ISBLANK(Layout!M36), "", Layout!M36*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O54" s="102" t="str">
+      <c r="O54" s="96" t="str">
         <f>IF(ISBLANK(Layout!N36), "", Layout!N36*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -3960,18 +3979,18 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="67">
+      <c r="A55" s="105">
         <v>35</v>
       </c>
-      <c r="B55" s="34" t="str">
+      <c r="B55" s="106" t="str">
         <f>IF(ISBLANK(Layout!B37), "", Layout!B37)</f>
         <v/>
       </c>
-      <c r="C55" s="95" t="str">
+      <c r="C55" s="107" t="str">
         <f>IF(ISBLANK(Layout!C37), "", Layout!C37)</f>
         <v/>
       </c>
-      <c r="D55" s="101" t="str">
+      <c r="D55" s="95" t="str">
         <f>IF(Layout!D37 &gt;0, $K$12 - E55 - P55, "")</f>
         <v/>
       </c>
@@ -4015,7 +4034,7 @@
         <f>IF(ISBLANK(Layout!M37), "", Layout!M37*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O55" s="102" t="str">
+      <c r="O55" s="96" t="str">
         <f>IF(ISBLANK(Layout!N37), "", Layout!N37*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4025,18 +4044,18 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="68">
+      <c r="A56" s="108">
         <v>36</v>
       </c>
-      <c r="B56" s="23" t="str">
+      <c r="B56" s="109" t="str">
         <f>IF(ISBLANK(Layout!B38), "", Layout!B38)</f>
         <v/>
       </c>
-      <c r="C56" s="96" t="str">
+      <c r="C56" s="110" t="str">
         <f>IF(ISBLANK(Layout!C38), "", Layout!C38)</f>
         <v/>
       </c>
-      <c r="D56" s="103" t="str">
+      <c r="D56" s="97" t="str">
         <f>IF(Layout!D38 &gt;0, $K$12 - E56 - P56, "")</f>
         <v/>
       </c>
@@ -4044,43 +4063,43 @@
         <f>IFERROR(Layout!D38*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F56" s="92" t="str">
+      <c r="F56" s="90" t="str">
         <f>IF(ISBLANK(Layout!E38), "", Layout!E38*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G56" s="92" t="str">
+      <c r="G56" s="90" t="str">
         <f>IF(ISBLANK(Layout!F38), "", Layout!F38*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H56" s="92" t="str">
+      <c r="H56" s="90" t="str">
         <f>IF(ISBLANK(Layout!G38), "", Layout!G38*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I56" s="92" t="str">
+      <c r="I56" s="90" t="str">
         <f>IF(ISBLANK(Layout!H38), "", Layout!H38*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J56" s="92" t="str">
+      <c r="J56" s="90" t="str">
         <f>IF(ISBLANK(Layout!I38),"",Layout!I38*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K56" s="92" t="str">
+      <c r="K56" s="90" t="str">
         <f>IF(ISBLANK(Layout!J38), "", Layout!J38*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L56" s="92" t="str">
+      <c r="L56" s="90" t="str">
         <f>IF(ISBLANK(Layout!K38), "", Layout!K38*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M56" s="92" t="str">
+      <c r="M56" s="90" t="str">
         <f>IF(ISBLANK(Layout!L38), "", Layout!L38*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N56" s="92" t="str">
+      <c r="N56" s="90" t="str">
         <f>IF(ISBLANK(Layout!M38), "", Layout!M38*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O56" s="104" t="str">
+      <c r="O56" s="98" t="str">
         <f>IF(ISBLANK(Layout!N38), "", Layout!N38*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4090,18 +4109,18 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="66">
+      <c r="A57" s="102">
         <v>37</v>
       </c>
-      <c r="B57" s="35" t="str">
+      <c r="B57" s="103" t="str">
         <f>IF(ISBLANK(Layout!B39), "", Layout!B39)</f>
         <v/>
       </c>
-      <c r="C57" s="94" t="str">
+      <c r="C57" s="104" t="str">
         <f>IF(ISBLANK(Layout!C39), "", Layout!C39)</f>
         <v/>
       </c>
-      <c r="D57" s="99" t="str">
+      <c r="D57" s="93" t="str">
         <f>IF(Layout!D39 &gt;0, $K$12 - E57 - P57, "")</f>
         <v/>
       </c>
@@ -4109,43 +4128,43 @@
         <f>IFERROR(Layout!D39*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F57" s="91" t="str">
+      <c r="F57" s="89" t="str">
         <f>IF(ISBLANK(Layout!E39), "", Layout!E39*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G57" s="91" t="str">
+      <c r="G57" s="89" t="str">
         <f>IF(ISBLANK(Layout!F39), "", Layout!F39*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H57" s="91" t="str">
+      <c r="H57" s="89" t="str">
         <f>IF(ISBLANK(Layout!G39), "", Layout!G39*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I57" s="91" t="str">
+      <c r="I57" s="89" t="str">
         <f>IF(ISBLANK(Layout!H39), "", Layout!H39*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J57" s="91" t="str">
+      <c r="J57" s="89" t="str">
         <f>IF(ISBLANK(Layout!I39),"",Layout!I39*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K57" s="91" t="str">
+      <c r="K57" s="89" t="str">
         <f>IF(ISBLANK(Layout!J39), "", Layout!J39*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L57" s="91" t="str">
+      <c r="L57" s="89" t="str">
         <f>IF(ISBLANK(Layout!K39), "", Layout!K39*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M57" s="91" t="str">
+      <c r="M57" s="89" t="str">
         <f>IF(ISBLANK(Layout!L39), "", Layout!L39*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N57" s="91" t="str">
+      <c r="N57" s="89" t="str">
         <f>IF(ISBLANK(Layout!M39), "", Layout!M39*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O57" s="100" t="str">
+      <c r="O57" s="94" t="str">
         <f>IF(ISBLANK(Layout!N39), "", Layout!N39*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4155,18 +4174,18 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="67">
+      <c r="A58" s="105">
         <v>38</v>
       </c>
-      <c r="B58" s="34" t="str">
+      <c r="B58" s="106" t="str">
         <f>IF(ISBLANK(Layout!B40), "", Layout!B40)</f>
         <v/>
       </c>
-      <c r="C58" s="95" t="str">
+      <c r="C58" s="107" t="str">
         <f>IF(ISBLANK(Layout!C40), "", Layout!C40)</f>
         <v/>
       </c>
-      <c r="D58" s="101" t="str">
+      <c r="D58" s="95" t="str">
         <f>IF(Layout!D40 &gt;0, $K$12 - E58 - P58, "")</f>
         <v/>
       </c>
@@ -4210,7 +4229,7 @@
         <f>IF(ISBLANK(Layout!M40), "", Layout!M40*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O58" s="102" t="str">
+      <c r="O58" s="96" t="str">
         <f>IF(ISBLANK(Layout!N40), "", Layout!N40*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4220,18 +4239,18 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="67">
+      <c r="A59" s="105">
         <v>39</v>
       </c>
-      <c r="B59" s="34" t="str">
+      <c r="B59" s="106" t="str">
         <f>IF(ISBLANK(Layout!B41), "", Layout!B41)</f>
         <v/>
       </c>
-      <c r="C59" s="95" t="str">
+      <c r="C59" s="107" t="str">
         <f>IF(ISBLANK(Layout!C41), "", Layout!C41)</f>
         <v/>
       </c>
-      <c r="D59" s="101" t="str">
+      <c r="D59" s="95" t="str">
         <f>IF(Layout!D41 &gt;0, $K$12 - E59 - P59, "")</f>
         <v/>
       </c>
@@ -4275,7 +4294,7 @@
         <f>IF(ISBLANK(Layout!M41), "", Layout!M41*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O59" s="102" t="str">
+      <c r="O59" s="96" t="str">
         <f>IF(ISBLANK(Layout!N41), "", Layout!N41*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4285,18 +4304,18 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="67">
+      <c r="A60" s="105">
         <v>40</v>
       </c>
-      <c r="B60" s="34" t="str">
+      <c r="B60" s="106" t="str">
         <f>IF(ISBLANK(Layout!B42), "", Layout!B42)</f>
         <v/>
       </c>
-      <c r="C60" s="95" t="str">
+      <c r="C60" s="107" t="str">
         <f>IF(ISBLANK(Layout!C42), "", Layout!C42)</f>
         <v/>
       </c>
-      <c r="D60" s="101" t="str">
+      <c r="D60" s="95" t="str">
         <f>IF(Layout!D42 &gt;0, $K$12 - E60 - P60, "")</f>
         <v/>
       </c>
@@ -4340,7 +4359,7 @@
         <f>IF(ISBLANK(Layout!M42), "", Layout!M42*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O60" s="102" t="str">
+      <c r="O60" s="96" t="str">
         <f>IF(ISBLANK(Layout!N42), "", Layout!N42*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4350,18 +4369,18 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="67">
+      <c r="A61" s="105">
         <v>41</v>
       </c>
-      <c r="B61" s="34" t="str">
+      <c r="B61" s="106" t="str">
         <f>IF(ISBLANK(Layout!B43), "", Layout!B43)</f>
         <v/>
       </c>
-      <c r="C61" s="95" t="str">
+      <c r="C61" s="107" t="str">
         <f>IF(ISBLANK(Layout!C43), "", Layout!C43)</f>
         <v/>
       </c>
-      <c r="D61" s="101" t="str">
+      <c r="D61" s="95" t="str">
         <f>IF(Layout!D43 &gt;0, $K$12 - E61 - P61, "")</f>
         <v/>
       </c>
@@ -4405,7 +4424,7 @@
         <f>IF(ISBLANK(Layout!M43), "", Layout!M43*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O61" s="102" t="str">
+      <c r="O61" s="96" t="str">
         <f>IF(ISBLANK(Layout!N43), "", Layout!N43*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4415,18 +4434,18 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="67">
+      <c r="A62" s="105">
         <v>42</v>
       </c>
-      <c r="B62" s="34" t="str">
+      <c r="B62" s="106" t="str">
         <f>IF(ISBLANK(Layout!B44), "", Layout!B44)</f>
         <v/>
       </c>
-      <c r="C62" s="95" t="str">
+      <c r="C62" s="107" t="str">
         <f>IF(ISBLANK(Layout!C44), "", Layout!C44)</f>
         <v/>
       </c>
-      <c r="D62" s="101" t="str">
+      <c r="D62" s="95" t="str">
         <f>IF(Layout!D44 &gt;0, $K$12 - E62 - P62, "")</f>
         <v/>
       </c>
@@ -4470,7 +4489,7 @@
         <f>IF(ISBLANK(Layout!M44), "", Layout!M44*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O62" s="102" t="str">
+      <c r="O62" s="96" t="str">
         <f>IF(ISBLANK(Layout!N44), "", Layout!N44*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4480,18 +4499,18 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="67">
+      <c r="A63" s="105">
         <v>43</v>
       </c>
-      <c r="B63" s="34" t="str">
+      <c r="B63" s="106" t="str">
         <f>IF(ISBLANK(Layout!B45), "", Layout!B45)</f>
         <v/>
       </c>
-      <c r="C63" s="95" t="str">
+      <c r="C63" s="107" t="str">
         <f>IF(ISBLANK(Layout!C45), "", Layout!C45)</f>
         <v/>
       </c>
-      <c r="D63" s="101" t="str">
+      <c r="D63" s="95" t="str">
         <f>IF(Layout!D45 &gt;0, $K$12 - E63 - P63, "")</f>
         <v/>
       </c>
@@ -4535,7 +4554,7 @@
         <f>IF(ISBLANK(Layout!M45), "", Layout!M45*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O63" s="102" t="str">
+      <c r="O63" s="96" t="str">
         <f>IF(ISBLANK(Layout!N45), "", Layout!N45*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4545,18 +4564,18 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="67">
+      <c r="A64" s="105">
         <v>44</v>
       </c>
-      <c r="B64" s="34" t="str">
+      <c r="B64" s="106" t="str">
         <f>IF(ISBLANK(Layout!B46), "", Layout!B46)</f>
         <v/>
       </c>
-      <c r="C64" s="95" t="str">
+      <c r="C64" s="107" t="str">
         <f>IF(ISBLANK(Layout!C46), "", Layout!C46)</f>
         <v/>
       </c>
-      <c r="D64" s="101" t="str">
+      <c r="D64" s="95" t="str">
         <f>IF(Layout!D46 &gt;0, $K$12 - E64 - P64, "")</f>
         <v/>
       </c>
@@ -4600,7 +4619,7 @@
         <f>IF(ISBLANK(Layout!M46), "", Layout!M46*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O64" s="102" t="str">
+      <c r="O64" s="96" t="str">
         <f>IF(ISBLANK(Layout!N46), "", Layout!N46*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4610,18 +4629,18 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="67">
+      <c r="A65" s="105">
         <v>45</v>
       </c>
-      <c r="B65" s="34" t="str">
+      <c r="B65" s="106" t="str">
         <f>IF(ISBLANK(Layout!B47), "", Layout!B47)</f>
         <v/>
       </c>
-      <c r="C65" s="95" t="str">
+      <c r="C65" s="107" t="str">
         <f>IF(ISBLANK(Layout!C47), "", Layout!C47)</f>
         <v/>
       </c>
-      <c r="D65" s="101" t="str">
+      <c r="D65" s="95" t="str">
         <f>IF(Layout!D47 &gt;0, $K$12 - E65 - P65, "")</f>
         <v/>
       </c>
@@ -4665,7 +4684,7 @@
         <f>IF(ISBLANK(Layout!M47), "", Layout!M47*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O65" s="102" t="str">
+      <c r="O65" s="96" t="str">
         <f>IF(ISBLANK(Layout!N47), "", Layout!N47*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4675,18 +4694,18 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="67">
+      <c r="A66" s="105">
         <v>46</v>
       </c>
-      <c r="B66" s="34" t="str">
+      <c r="B66" s="106" t="str">
         <f>IF(ISBLANK(Layout!B48), "", Layout!B48)</f>
         <v/>
       </c>
-      <c r="C66" s="95" t="str">
+      <c r="C66" s="107" t="str">
         <f>IF(ISBLANK(Layout!C48), "", Layout!C48)</f>
         <v/>
       </c>
-      <c r="D66" s="101" t="str">
+      <c r="D66" s="95" t="str">
         <f>IF(Layout!D48 &gt;0, $K$12 - E66 - P66, "")</f>
         <v/>
       </c>
@@ -4730,7 +4749,7 @@
         <f>IF(ISBLANK(Layout!M48), "", Layout!M48*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O66" s="102" t="str">
+      <c r="O66" s="96" t="str">
         <f>IF(ISBLANK(Layout!N48), "", Layout!N48*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4740,18 +4759,18 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="67">
+      <c r="A67" s="105">
         <v>47</v>
       </c>
-      <c r="B67" s="34" t="str">
+      <c r="B67" s="106" t="str">
         <f>IF(ISBLANK(Layout!B49), "", Layout!B49)</f>
         <v/>
       </c>
-      <c r="C67" s="95" t="str">
+      <c r="C67" s="107" t="str">
         <f>IF(ISBLANK(Layout!C49), "", Layout!C49)</f>
         <v/>
       </c>
-      <c r="D67" s="101" t="str">
+      <c r="D67" s="95" t="str">
         <f>IF(Layout!D49 &gt;0, $K$12 - E67 - P67, "")</f>
         <v/>
       </c>
@@ -4795,7 +4814,7 @@
         <f>IF(ISBLANK(Layout!M49), "", Layout!M49*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O67" s="102" t="str">
+      <c r="O67" s="96" t="str">
         <f>IF(ISBLANK(Layout!N49), "", Layout!N49*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4805,18 +4824,18 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="68">
+      <c r="A68" s="108">
         <v>48</v>
       </c>
-      <c r="B68" s="23" t="str">
+      <c r="B68" s="109" t="str">
         <f>IF(ISBLANK(Layout!B50), "", Layout!B50)</f>
         <v/>
       </c>
-      <c r="C68" s="96" t="str">
+      <c r="C68" s="110" t="str">
         <f>IF(ISBLANK(Layout!C50), "", Layout!C50)</f>
         <v/>
       </c>
-      <c r="D68" s="103" t="str">
+      <c r="D68" s="97" t="str">
         <f>IF(Layout!D50 &gt;0, $K$12 - E68 - P68, "")</f>
         <v/>
       </c>
@@ -4824,43 +4843,43 @@
         <f>IFERROR(Layout!D50*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F68" s="92" t="str">
+      <c r="F68" s="90" t="str">
         <f>IF(ISBLANK(Layout!E50), "", Layout!E50*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G68" s="92" t="str">
+      <c r="G68" s="90" t="str">
         <f>IF(ISBLANK(Layout!F50), "", Layout!F50*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H68" s="92" t="str">
+      <c r="H68" s="90" t="str">
         <f>IF(ISBLANK(Layout!G50), "", Layout!G50*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I68" s="92" t="str">
+      <c r="I68" s="90" t="str">
         <f>IF(ISBLANK(Layout!H50), "", Layout!H50*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J68" s="92" t="str">
+      <c r="J68" s="90" t="str">
         <f>IF(ISBLANK(Layout!I50),"",Layout!I50*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K68" s="92" t="str">
+      <c r="K68" s="90" t="str">
         <f>IF(ISBLANK(Layout!J50), "", Layout!J50*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L68" s="92" t="str">
+      <c r="L68" s="90" t="str">
         <f>IF(ISBLANK(Layout!K50), "", Layout!K50*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M68" s="92" t="str">
+      <c r="M68" s="90" t="str">
         <f>IF(ISBLANK(Layout!L50), "", Layout!L50*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N68" s="92" t="str">
+      <c r="N68" s="90" t="str">
         <f>IF(ISBLANK(Layout!M50), "", Layout!M50*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O68" s="104" t="str">
+      <c r="O68" s="98" t="str">
         <f>IF(ISBLANK(Layout!N50), "", Layout!N50*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4870,18 +4889,18 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="66">
+      <c r="A69" s="102">
         <v>49</v>
       </c>
-      <c r="B69" s="35" t="str">
+      <c r="B69" s="103" t="str">
         <f>IF(ISBLANK(Layout!B51), "", Layout!B51)</f>
         <v/>
       </c>
-      <c r="C69" s="94" t="str">
+      <c r="C69" s="104" t="str">
         <f>IF(ISBLANK(Layout!C51), "", Layout!C51)</f>
         <v/>
       </c>
-      <c r="D69" s="99" t="str">
+      <c r="D69" s="93" t="str">
         <f>IF(Layout!D51 &gt;0, $K$12 - E69 - P69, "")</f>
         <v/>
       </c>
@@ -4889,43 +4908,43 @@
         <f>IFERROR(Layout!D51*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F69" s="91" t="str">
+      <c r="F69" s="89" t="str">
         <f>IF(ISBLANK(Layout!E51), "", Layout!E51*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G69" s="91" t="str">
+      <c r="G69" s="89" t="str">
         <f>IF(ISBLANK(Layout!F51), "", Layout!F51*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H69" s="91" t="str">
+      <c r="H69" s="89" t="str">
         <f>IF(ISBLANK(Layout!G51), "", Layout!G51*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I69" s="91" t="str">
+      <c r="I69" s="89" t="str">
         <f>IF(ISBLANK(Layout!H51), "", Layout!H51*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J69" s="91" t="str">
+      <c r="J69" s="89" t="str">
         <f>IF(ISBLANK(Layout!I51),"",Layout!I51*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K69" s="91" t="str">
+      <c r="K69" s="89" t="str">
         <f>IF(ISBLANK(Layout!J51), "", Layout!J51*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L69" s="91" t="str">
+      <c r="L69" s="89" t="str">
         <f>IF(ISBLANK(Layout!K51), "", Layout!K51*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M69" s="91" t="str">
+      <c r="M69" s="89" t="str">
         <f>IF(ISBLANK(Layout!L51), "", Layout!L51*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N69" s="91" t="str">
+      <c r="N69" s="89" t="str">
         <f>IF(ISBLANK(Layout!M51), "", Layout!M51*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O69" s="100" t="str">
+      <c r="O69" s="94" t="str">
         <f>IF(ISBLANK(Layout!N51), "", Layout!N51*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -4935,18 +4954,18 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="67">
+      <c r="A70" s="105">
         <v>50</v>
       </c>
-      <c r="B70" s="34" t="str">
+      <c r="B70" s="106" t="str">
         <f>IF(ISBLANK(Layout!B52), "", Layout!B52)</f>
         <v/>
       </c>
-      <c r="C70" s="95" t="str">
+      <c r="C70" s="107" t="str">
         <f>IF(ISBLANK(Layout!C52), "", Layout!C52)</f>
         <v/>
       </c>
-      <c r="D70" s="101" t="str">
+      <c r="D70" s="95" t="str">
         <f>IF(Layout!D52 &gt;0, $K$12 - E70 - P70, "")</f>
         <v/>
       </c>
@@ -4990,7 +5009,7 @@
         <f>IF(ISBLANK(Layout!M52), "", Layout!M52*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O70" s="102" t="str">
+      <c r="O70" s="96" t="str">
         <f>IF(ISBLANK(Layout!N52), "", Layout!N52*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5000,18 +5019,18 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="67">
+      <c r="A71" s="105">
         <v>51</v>
       </c>
-      <c r="B71" s="34" t="str">
+      <c r="B71" s="106" t="str">
         <f>IF(ISBLANK(Layout!B53), "", Layout!B53)</f>
         <v/>
       </c>
-      <c r="C71" s="95" t="str">
+      <c r="C71" s="107" t="str">
         <f>IF(ISBLANK(Layout!C53), "", Layout!C53)</f>
         <v/>
       </c>
-      <c r="D71" s="101" t="str">
+      <c r="D71" s="95" t="str">
         <f>IF(Layout!D53 &gt;0, $K$12 - E71 - P71, "")</f>
         <v/>
       </c>
@@ -5055,7 +5074,7 @@
         <f>IF(ISBLANK(Layout!M53), "", Layout!M53*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O71" s="102" t="str">
+      <c r="O71" s="96" t="str">
         <f>IF(ISBLANK(Layout!N53), "", Layout!N53*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5065,18 +5084,18 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="67">
+      <c r="A72" s="105">
         <v>52</v>
       </c>
-      <c r="B72" s="34" t="str">
+      <c r="B72" s="106" t="str">
         <f>IF(ISBLANK(Layout!B54), "", Layout!B54)</f>
         <v/>
       </c>
-      <c r="C72" s="95" t="str">
+      <c r="C72" s="107" t="str">
         <f>IF(ISBLANK(Layout!C54), "", Layout!C54)</f>
         <v/>
       </c>
-      <c r="D72" s="101" t="str">
+      <c r="D72" s="95" t="str">
         <f>IF(Layout!D54 &gt;0, $K$12 - E72 - P72, "")</f>
         <v/>
       </c>
@@ -5120,7 +5139,7 @@
         <f>IF(ISBLANK(Layout!M54), "", Layout!M54*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O72" s="102" t="str">
+      <c r="O72" s="96" t="str">
         <f>IF(ISBLANK(Layout!N54), "", Layout!N54*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5130,18 +5149,18 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="67">
+      <c r="A73" s="105">
         <v>53</v>
       </c>
-      <c r="B73" s="34" t="str">
+      <c r="B73" s="106" t="str">
         <f>IF(ISBLANK(Layout!B55), "", Layout!B55)</f>
         <v/>
       </c>
-      <c r="C73" s="95" t="str">
+      <c r="C73" s="107" t="str">
         <f>IF(ISBLANK(Layout!C55), "", Layout!C55)</f>
         <v/>
       </c>
-      <c r="D73" s="101" t="str">
+      <c r="D73" s="95" t="str">
         <f>IF(Layout!D55 &gt;0, $K$12 - E73 - P73, "")</f>
         <v/>
       </c>
@@ -5185,7 +5204,7 @@
         <f>IF(ISBLANK(Layout!M55), "", Layout!M55*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O73" s="102" t="str">
+      <c r="O73" s="96" t="str">
         <f>IF(ISBLANK(Layout!N55), "", Layout!N55*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5195,18 +5214,18 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="67">
+      <c r="A74" s="105">
         <v>54</v>
       </c>
-      <c r="B74" s="34" t="str">
+      <c r="B74" s="106" t="str">
         <f>IF(ISBLANK(Layout!B56), "", Layout!B56)</f>
         <v/>
       </c>
-      <c r="C74" s="95" t="str">
+      <c r="C74" s="107" t="str">
         <f>IF(ISBLANK(Layout!C56), "", Layout!C56)</f>
         <v/>
       </c>
-      <c r="D74" s="101" t="str">
+      <c r="D74" s="95" t="str">
         <f>IF(Layout!D56 &gt;0, $K$12 - E74 - P74, "")</f>
         <v/>
       </c>
@@ -5250,7 +5269,7 @@
         <f>IF(ISBLANK(Layout!M56), "", Layout!M56*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O74" s="102" t="str">
+      <c r="O74" s="96" t="str">
         <f>IF(ISBLANK(Layout!N56), "", Layout!N56*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5260,18 +5279,18 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="67">
+      <c r="A75" s="105">
         <v>55</v>
       </c>
-      <c r="B75" s="34" t="str">
+      <c r="B75" s="106" t="str">
         <f>IF(ISBLANK(Layout!B57), "", Layout!B57)</f>
         <v/>
       </c>
-      <c r="C75" s="95" t="str">
+      <c r="C75" s="107" t="str">
         <f>IF(ISBLANK(Layout!C57), "", Layout!C57)</f>
         <v/>
       </c>
-      <c r="D75" s="101" t="str">
+      <c r="D75" s="95" t="str">
         <f>IF(Layout!D57 &gt;0, $K$12 - E75 - P75, "")</f>
         <v/>
       </c>
@@ -5315,7 +5334,7 @@
         <f>IF(ISBLANK(Layout!M57), "", Layout!M57*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O75" s="102" t="str">
+      <c r="O75" s="96" t="str">
         <f>IF(ISBLANK(Layout!N57), "", Layout!N57*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5325,18 +5344,18 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="67">
+      <c r="A76" s="105">
         <v>56</v>
       </c>
-      <c r="B76" s="34" t="str">
+      <c r="B76" s="106" t="str">
         <f>IF(ISBLANK(Layout!B58), "", Layout!B58)</f>
         <v/>
       </c>
-      <c r="C76" s="95" t="str">
+      <c r="C76" s="107" t="str">
         <f>IF(ISBLANK(Layout!C58), "", Layout!C58)</f>
         <v/>
       </c>
-      <c r="D76" s="101" t="str">
+      <c r="D76" s="95" t="str">
         <f>IF(Layout!D58 &gt;0, $K$12 - E76 - P76, "")</f>
         <v/>
       </c>
@@ -5380,7 +5399,7 @@
         <f>IF(ISBLANK(Layout!M58), "", Layout!M58*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O76" s="102" t="str">
+      <c r="O76" s="96" t="str">
         <f>IF(ISBLANK(Layout!N58), "", Layout!N58*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5390,18 +5409,18 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="67">
+      <c r="A77" s="105">
         <v>57</v>
       </c>
-      <c r="B77" s="34" t="str">
+      <c r="B77" s="106" t="str">
         <f>IF(ISBLANK(Layout!B59), "", Layout!B59)</f>
         <v/>
       </c>
-      <c r="C77" s="95" t="str">
+      <c r="C77" s="107" t="str">
         <f>IF(ISBLANK(Layout!C59), "", Layout!C59)</f>
         <v/>
       </c>
-      <c r="D77" s="101" t="str">
+      <c r="D77" s="95" t="str">
         <f>IF(Layout!D59 &gt;0, $K$12 - E77 - P77, "")</f>
         <v/>
       </c>
@@ -5445,7 +5464,7 @@
         <f>IF(ISBLANK(Layout!M59), "", Layout!M59*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O77" s="102" t="str">
+      <c r="O77" s="96" t="str">
         <f>IF(ISBLANK(Layout!N59), "", Layout!N59*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5455,18 +5474,18 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="67">
+      <c r="A78" s="105">
         <v>58</v>
       </c>
-      <c r="B78" s="34" t="str">
+      <c r="B78" s="106" t="str">
         <f>IF(ISBLANK(Layout!B60), "", Layout!B60)</f>
         <v/>
       </c>
-      <c r="C78" s="95" t="str">
+      <c r="C78" s="107" t="str">
         <f>IF(ISBLANK(Layout!C60), "", Layout!C60)</f>
         <v/>
       </c>
-      <c r="D78" s="101" t="str">
+      <c r="D78" s="95" t="str">
         <f>IF(Layout!D60 &gt;0, $K$12 - E78 - P78, "")</f>
         <v/>
       </c>
@@ -5510,7 +5529,7 @@
         <f>IF(ISBLANK(Layout!M60), "", Layout!M60*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O78" s="102" t="str">
+      <c r="O78" s="96" t="str">
         <f>IF(ISBLANK(Layout!N60), "", Layout!N60*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5520,18 +5539,18 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="67">
+      <c r="A79" s="105">
         <v>59</v>
       </c>
-      <c r="B79" s="34" t="str">
+      <c r="B79" s="106" t="str">
         <f>IF(ISBLANK(Layout!B61), "", Layout!B61)</f>
         <v/>
       </c>
-      <c r="C79" s="95" t="str">
+      <c r="C79" s="107" t="str">
         <f>IF(ISBLANK(Layout!C61), "", Layout!C61)</f>
         <v/>
       </c>
-      <c r="D79" s="101" t="str">
+      <c r="D79" s="95" t="str">
         <f>IF(Layout!D61 &gt;0, $K$12 - E79 - P79, "")</f>
         <v/>
       </c>
@@ -5575,7 +5594,7 @@
         <f>IF(ISBLANK(Layout!M61), "", Layout!M61*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O79" s="102" t="str">
+      <c r="O79" s="96" t="str">
         <f>IF(ISBLANK(Layout!N61), "", Layout!N61*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5585,18 +5604,18 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="68">
+      <c r="A80" s="108">
         <v>60</v>
       </c>
-      <c r="B80" s="23" t="str">
+      <c r="B80" s="109" t="str">
         <f>IF(ISBLANK(Layout!B62), "", Layout!B62)</f>
         <v/>
       </c>
-      <c r="C80" s="96" t="str">
+      <c r="C80" s="110" t="str">
         <f>IF(ISBLANK(Layout!C62), "", Layout!C62)</f>
         <v/>
       </c>
-      <c r="D80" s="103" t="str">
+      <c r="D80" s="97" t="str">
         <f>IF(Layout!D62 &gt;0, $K$12 - E80 - P80, "")</f>
         <v/>
       </c>
@@ -5604,43 +5623,43 @@
         <f>IFERROR(Layout!D62*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F80" s="92" t="str">
+      <c r="F80" s="90" t="str">
         <f>IF(ISBLANK(Layout!E62), "", Layout!E62*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G80" s="92" t="str">
+      <c r="G80" s="90" t="str">
         <f>IF(ISBLANK(Layout!F62), "", Layout!F62*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H80" s="92" t="str">
+      <c r="H80" s="90" t="str">
         <f>IF(ISBLANK(Layout!G62), "", Layout!G62*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I80" s="92" t="str">
+      <c r="I80" s="90" t="str">
         <f>IF(ISBLANK(Layout!H62), "", Layout!H62*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J80" s="92" t="str">
+      <c r="J80" s="90" t="str">
         <f>IF(ISBLANK(Layout!I62),"",Layout!I62*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K80" s="92" t="str">
+      <c r="K80" s="90" t="str">
         <f>IF(ISBLANK(Layout!J62), "", Layout!J62*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L80" s="92" t="str">
+      <c r="L80" s="90" t="str">
         <f>IF(ISBLANK(Layout!K62), "", Layout!K62*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M80" s="92" t="str">
+      <c r="M80" s="90" t="str">
         <f>IF(ISBLANK(Layout!L62), "", Layout!L62*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N80" s="92" t="str">
+      <c r="N80" s="90" t="str">
         <f>IF(ISBLANK(Layout!M62), "", Layout!M62*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O80" s="104" t="str">
+      <c r="O80" s="98" t="str">
         <f>IF(ISBLANK(Layout!N62), "", Layout!N62*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5650,18 +5669,18 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="66">
+      <c r="A81" s="102">
         <v>61</v>
       </c>
-      <c r="B81" s="35" t="str">
+      <c r="B81" s="103" t="str">
         <f>IF(ISBLANK(Layout!B63), "", Layout!B63)</f>
         <v/>
       </c>
-      <c r="C81" s="94" t="str">
+      <c r="C81" s="104" t="str">
         <f>IF(ISBLANK(Layout!C63), "", Layout!C63)</f>
         <v/>
       </c>
-      <c r="D81" s="99" t="str">
+      <c r="D81" s="93" t="str">
         <f>IF(Layout!D63 &gt;0, $K$12 - E81 - P81, "")</f>
         <v/>
       </c>
@@ -5669,43 +5688,43 @@
         <f>IFERROR(Layout!D63*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F81" s="91" t="str">
+      <c r="F81" s="89" t="str">
         <f>IF(ISBLANK(Layout!E63), "", Layout!E63*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G81" s="91" t="str">
+      <c r="G81" s="89" t="str">
         <f>IF(ISBLANK(Layout!F63), "", Layout!F63*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H81" s="91" t="str">
+      <c r="H81" s="89" t="str">
         <f>IF(ISBLANK(Layout!G63), "", Layout!G63*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I81" s="91" t="str">
+      <c r="I81" s="89" t="str">
         <f>IF(ISBLANK(Layout!H63), "", Layout!H63*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J81" s="91" t="str">
+      <c r="J81" s="89" t="str">
         <f>IF(ISBLANK(Layout!I63),"",Layout!I63*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K81" s="91" t="str">
+      <c r="K81" s="89" t="str">
         <f>IF(ISBLANK(Layout!J63), "", Layout!J63*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L81" s="91" t="str">
+      <c r="L81" s="89" t="str">
         <f>IF(ISBLANK(Layout!K63), "", Layout!K63*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M81" s="91" t="str">
+      <c r="M81" s="89" t="str">
         <f>IF(ISBLANK(Layout!L63), "", Layout!L63*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N81" s="91" t="str">
+      <c r="N81" s="89" t="str">
         <f>IF(ISBLANK(Layout!M63), "", Layout!M63*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O81" s="100" t="str">
+      <c r="O81" s="94" t="str">
         <f>IF(ISBLANK(Layout!N63), "", Layout!N63*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5715,18 +5734,18 @@
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="67">
+      <c r="A82" s="105">
         <v>62</v>
       </c>
-      <c r="B82" s="34" t="str">
+      <c r="B82" s="106" t="str">
         <f>IF(ISBLANK(Layout!B64), "", Layout!B64)</f>
         <v/>
       </c>
-      <c r="C82" s="95" t="str">
+      <c r="C82" s="107" t="str">
         <f>IF(ISBLANK(Layout!C64), "", Layout!C64)</f>
         <v/>
       </c>
-      <c r="D82" s="101" t="str">
+      <c r="D82" s="95" t="str">
         <f>IF(Layout!D64 &gt;0, $K$12 - E82 - P82, "")</f>
         <v/>
       </c>
@@ -5770,7 +5789,7 @@
         <f>IF(ISBLANK(Layout!M64), "", Layout!M64*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O82" s="102" t="str">
+      <c r="O82" s="96" t="str">
         <f>IF(ISBLANK(Layout!N64), "", Layout!N64*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5780,18 +5799,18 @@
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="67">
+      <c r="A83" s="105">
         <v>63</v>
       </c>
-      <c r="B83" s="34" t="str">
+      <c r="B83" s="106" t="str">
         <f>IF(ISBLANK(Layout!B65), "", Layout!B65)</f>
         <v/>
       </c>
-      <c r="C83" s="95" t="str">
+      <c r="C83" s="107" t="str">
         <f>IF(ISBLANK(Layout!C65), "", Layout!C65)</f>
         <v/>
       </c>
-      <c r="D83" s="101" t="str">
+      <c r="D83" s="95" t="str">
         <f>IF(Layout!D65 &gt;0, $K$12 - E83 - P83, "")</f>
         <v/>
       </c>
@@ -5835,7 +5854,7 @@
         <f>IF(ISBLANK(Layout!M65), "", Layout!M65*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O83" s="102" t="str">
+      <c r="O83" s="96" t="str">
         <f>IF(ISBLANK(Layout!N65), "", Layout!N65*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5845,18 +5864,18 @@
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="67">
+      <c r="A84" s="105">
         <v>64</v>
       </c>
-      <c r="B84" s="34" t="str">
+      <c r="B84" s="106" t="str">
         <f>IF(ISBLANK(Layout!B66), "", Layout!B66)</f>
         <v/>
       </c>
-      <c r="C84" s="95" t="str">
+      <c r="C84" s="107" t="str">
         <f>IF(ISBLANK(Layout!C66), "", Layout!C66)</f>
         <v/>
       </c>
-      <c r="D84" s="101" t="str">
+      <c r="D84" s="95" t="str">
         <f>IF(Layout!D66 &gt;0, $K$12 - E84 - P84, "")</f>
         <v/>
       </c>
@@ -5900,7 +5919,7 @@
         <f>IF(ISBLANK(Layout!M66), "", Layout!M66*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O84" s="102" t="str">
+      <c r="O84" s="96" t="str">
         <f>IF(ISBLANK(Layout!N66), "", Layout!N66*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5910,18 +5929,18 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="67">
+      <c r="A85" s="105">
         <v>65</v>
       </c>
-      <c r="B85" s="34" t="str">
+      <c r="B85" s="106" t="str">
         <f>IF(ISBLANK(Layout!B67), "", Layout!B67)</f>
         <v/>
       </c>
-      <c r="C85" s="95" t="str">
+      <c r="C85" s="107" t="str">
         <f>IF(ISBLANK(Layout!C67), "", Layout!C67)</f>
         <v/>
       </c>
-      <c r="D85" s="101" t="str">
+      <c r="D85" s="95" t="str">
         <f>IF(Layout!D67 &gt;0, $K$12 - E85 - P85, "")</f>
         <v/>
       </c>
@@ -5965,7 +5984,7 @@
         <f>IF(ISBLANK(Layout!M67), "", Layout!M67*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O85" s="102" t="str">
+      <c r="O85" s="96" t="str">
         <f>IF(ISBLANK(Layout!N67), "", Layout!N67*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -5975,18 +5994,18 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="67">
+      <c r="A86" s="105">
         <v>66</v>
       </c>
-      <c r="B86" s="34" t="str">
+      <c r="B86" s="106" t="str">
         <f>IF(ISBLANK(Layout!B68), "", Layout!B68)</f>
         <v/>
       </c>
-      <c r="C86" s="95" t="str">
+      <c r="C86" s="107" t="str">
         <f>IF(ISBLANK(Layout!C68), "", Layout!C68)</f>
         <v/>
       </c>
-      <c r="D86" s="101" t="str">
+      <c r="D86" s="95" t="str">
         <f>IF(Layout!D68 &gt;0, $K$12 - E86 - P86, "")</f>
         <v/>
       </c>
@@ -6030,7 +6049,7 @@
         <f>IF(ISBLANK(Layout!M68), "", Layout!M68*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O86" s="102" t="str">
+      <c r="O86" s="96" t="str">
         <f>IF(ISBLANK(Layout!N68), "", Layout!N68*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6040,18 +6059,18 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="67">
+      <c r="A87" s="105">
         <v>67</v>
       </c>
-      <c r="B87" s="34" t="str">
+      <c r="B87" s="106" t="str">
         <f>IF(ISBLANK(Layout!B69), "", Layout!B69)</f>
         <v/>
       </c>
-      <c r="C87" s="95" t="str">
+      <c r="C87" s="107" t="str">
         <f>IF(ISBLANK(Layout!C69), "", Layout!C69)</f>
         <v/>
       </c>
-      <c r="D87" s="101" t="str">
+      <c r="D87" s="95" t="str">
         <f>IF(Layout!D69 &gt;0, $K$12 - E87 - P87, "")</f>
         <v/>
       </c>
@@ -6095,7 +6114,7 @@
         <f>IF(ISBLANK(Layout!M69), "", Layout!M69*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O87" s="102" t="str">
+      <c r="O87" s="96" t="str">
         <f>IF(ISBLANK(Layout!N69), "", Layout!N69*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6105,18 +6124,18 @@
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="67">
+      <c r="A88" s="105">
         <v>68</v>
       </c>
-      <c r="B88" s="34" t="str">
+      <c r="B88" s="106" t="str">
         <f>IF(ISBLANK(Layout!B70), "", Layout!B70)</f>
         <v/>
       </c>
-      <c r="C88" s="95" t="str">
+      <c r="C88" s="107" t="str">
         <f>IF(ISBLANK(Layout!C70), "", Layout!C70)</f>
         <v/>
       </c>
-      <c r="D88" s="101" t="str">
+      <c r="D88" s="95" t="str">
         <f>IF(Layout!D70 &gt;0, $K$12 - E88 - P88, "")</f>
         <v/>
       </c>
@@ -6160,7 +6179,7 @@
         <f>IF(ISBLANK(Layout!M70), "", Layout!M70*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O88" s="102" t="str">
+      <c r="O88" s="96" t="str">
         <f>IF(ISBLANK(Layout!N70), "", Layout!N70*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6170,18 +6189,18 @@
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="67">
+      <c r="A89" s="105">
         <v>69</v>
       </c>
-      <c r="B89" s="34" t="str">
+      <c r="B89" s="106" t="str">
         <f>IF(ISBLANK(Layout!B71), "", Layout!B71)</f>
         <v/>
       </c>
-      <c r="C89" s="95" t="str">
+      <c r="C89" s="107" t="str">
         <f>IF(ISBLANK(Layout!C71), "", Layout!C71)</f>
         <v/>
       </c>
-      <c r="D89" s="101" t="str">
+      <c r="D89" s="95" t="str">
         <f>IF(Layout!D71 &gt;0, $K$12 - E89 - P89, "")</f>
         <v/>
       </c>
@@ -6225,7 +6244,7 @@
         <f>IF(ISBLANK(Layout!M71), "", Layout!M71*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O89" s="102" t="str">
+      <c r="O89" s="96" t="str">
         <f>IF(ISBLANK(Layout!N71), "", Layout!N71*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6235,18 +6254,18 @@
       </c>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="67">
+      <c r="A90" s="105">
         <v>70</v>
       </c>
-      <c r="B90" s="34" t="str">
+      <c r="B90" s="106" t="str">
         <f>IF(ISBLANK(Layout!B72), "", Layout!B72)</f>
         <v/>
       </c>
-      <c r="C90" s="95" t="str">
+      <c r="C90" s="107" t="str">
         <f>IF(ISBLANK(Layout!C72), "", Layout!C72)</f>
         <v/>
       </c>
-      <c r="D90" s="101" t="str">
+      <c r="D90" s="95" t="str">
         <f>IF(Layout!D72 &gt;0, $K$12 - E90 - P90, "")</f>
         <v/>
       </c>
@@ -6290,7 +6309,7 @@
         <f>IF(ISBLANK(Layout!M72), "", Layout!M72*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O90" s="102" t="str">
+      <c r="O90" s="96" t="str">
         <f>IF(ISBLANK(Layout!N72), "", Layout!N72*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6300,18 +6319,18 @@
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="67">
+      <c r="A91" s="105">
         <v>71</v>
       </c>
-      <c r="B91" s="34" t="str">
+      <c r="B91" s="106" t="str">
         <f>IF(ISBLANK(Layout!B73), "", Layout!B73)</f>
         <v/>
       </c>
-      <c r="C91" s="95" t="str">
+      <c r="C91" s="107" t="str">
         <f>IF(ISBLANK(Layout!C73), "", Layout!C73)</f>
         <v/>
       </c>
-      <c r="D91" s="101" t="str">
+      <c r="D91" s="95" t="str">
         <f>IF(Layout!D73 &gt;0, $K$12 - E91 - P91, "")</f>
         <v/>
       </c>
@@ -6355,7 +6374,7 @@
         <f>IF(ISBLANK(Layout!M73), "", Layout!M73*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O91" s="102" t="str">
+      <c r="O91" s="96" t="str">
         <f>IF(ISBLANK(Layout!N73), "", Layout!N73*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6365,18 +6384,18 @@
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="68">
+      <c r="A92" s="108">
         <v>72</v>
       </c>
-      <c r="B92" s="23" t="str">
+      <c r="B92" s="109" t="str">
         <f>IF(ISBLANK(Layout!B74), "", Layout!B74)</f>
         <v/>
       </c>
-      <c r="C92" s="96" t="str">
+      <c r="C92" s="110" t="str">
         <f>IF(ISBLANK(Layout!C74), "", Layout!C74)</f>
         <v/>
       </c>
-      <c r="D92" s="103" t="str">
+      <c r="D92" s="97" t="str">
         <f>IF(Layout!D74 &gt;0, $K$12 - E92 - P92, "")</f>
         <v/>
       </c>
@@ -6384,43 +6403,43 @@
         <f>IFERROR(Layout!D74*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F92" s="92" t="str">
+      <c r="F92" s="90" t="str">
         <f>IF(ISBLANK(Layout!E74), "", Layout!E74*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G92" s="92" t="str">
+      <c r="G92" s="90" t="str">
         <f>IF(ISBLANK(Layout!F74), "", Layout!F74*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H92" s="92" t="str">
+      <c r="H92" s="90" t="str">
         <f>IF(ISBLANK(Layout!G74), "", Layout!G74*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I92" s="92" t="str">
+      <c r="I92" s="90" t="str">
         <f>IF(ISBLANK(Layout!H74), "", Layout!H74*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J92" s="92" t="str">
+      <c r="J92" s="90" t="str">
         <f>IF(ISBLANK(Layout!I74),"",Layout!I74*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K92" s="92" t="str">
+      <c r="K92" s="90" t="str">
         <f>IF(ISBLANK(Layout!J74), "", Layout!J74*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L92" s="92" t="str">
+      <c r="L92" s="90" t="str">
         <f>IF(ISBLANK(Layout!K74), "", Layout!K74*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M92" s="92" t="str">
+      <c r="M92" s="90" t="str">
         <f>IF(ISBLANK(Layout!L74), "", Layout!L74*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N92" s="92" t="str">
+      <c r="N92" s="90" t="str">
         <f>IF(ISBLANK(Layout!M74), "", Layout!M74*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O92" s="104" t="str">
+      <c r="O92" s="98" t="str">
         <f>IF(ISBLANK(Layout!N74), "", Layout!N74*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6430,18 +6449,18 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="66">
+      <c r="A93" s="102">
         <v>73</v>
       </c>
-      <c r="B93" s="35" t="str">
+      <c r="B93" s="103" t="str">
         <f>IF(ISBLANK(Layout!B75), "", Layout!B75)</f>
         <v/>
       </c>
-      <c r="C93" s="94" t="str">
+      <c r="C93" s="104" t="str">
         <f>IF(ISBLANK(Layout!C75), "", Layout!C75)</f>
         <v/>
       </c>
-      <c r="D93" s="99" t="str">
+      <c r="D93" s="93" t="str">
         <f>IF(Layout!D75 &gt;0, $K$12 - E93 - P93, "")</f>
         <v/>
       </c>
@@ -6449,43 +6468,43 @@
         <f>IFERROR(Layout!D75*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F93" s="91" t="str">
+      <c r="F93" s="89" t="str">
         <f>IF(ISBLANK(Layout!E75), "", Layout!E75*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G93" s="91" t="str">
+      <c r="G93" s="89" t="str">
         <f>IF(ISBLANK(Layout!F75), "", Layout!F75*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H93" s="91" t="str">
+      <c r="H93" s="89" t="str">
         <f>IF(ISBLANK(Layout!G75), "", Layout!G75*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I93" s="91" t="str">
+      <c r="I93" s="89" t="str">
         <f>IF(ISBLANK(Layout!H75), "", Layout!H75*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J93" s="91" t="str">
+      <c r="J93" s="89" t="str">
         <f>IF(ISBLANK(Layout!I75),"",Layout!I75*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K93" s="91" t="str">
+      <c r="K93" s="89" t="str">
         <f>IF(ISBLANK(Layout!J75), "", Layout!J75*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L93" s="91" t="str">
+      <c r="L93" s="89" t="str">
         <f>IF(ISBLANK(Layout!K75), "", Layout!K75*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M93" s="91" t="str">
+      <c r="M93" s="89" t="str">
         <f>IF(ISBLANK(Layout!L75), "", Layout!L75*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N93" s="91" t="str">
+      <c r="N93" s="89" t="str">
         <f>IF(ISBLANK(Layout!M75), "", Layout!M75*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O93" s="100" t="str">
+      <c r="O93" s="94" t="str">
         <f>IF(ISBLANK(Layout!N75), "", Layout!N75*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6495,18 +6514,18 @@
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="67">
+      <c r="A94" s="105">
         <v>74</v>
       </c>
-      <c r="B94" s="34" t="str">
+      <c r="B94" s="106" t="str">
         <f>IF(ISBLANK(Layout!B76), "", Layout!B76)</f>
         <v/>
       </c>
-      <c r="C94" s="95" t="str">
+      <c r="C94" s="107" t="str">
         <f>IF(ISBLANK(Layout!C76), "", Layout!C76)</f>
         <v/>
       </c>
-      <c r="D94" s="101" t="str">
+      <c r="D94" s="95" t="str">
         <f>IF(Layout!D76 &gt;0, $K$12 - E94 - P94, "")</f>
         <v/>
       </c>
@@ -6550,7 +6569,7 @@
         <f>IF(ISBLANK(Layout!M76), "", Layout!M76*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O94" s="102" t="str">
+      <c r="O94" s="96" t="str">
         <f>IF(ISBLANK(Layout!N76), "", Layout!N76*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6560,18 +6579,18 @@
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="67">
+      <c r="A95" s="105">
         <v>75</v>
       </c>
-      <c r="B95" s="34" t="str">
+      <c r="B95" s="106" t="str">
         <f>IF(ISBLANK(Layout!B77), "", Layout!B77)</f>
         <v/>
       </c>
-      <c r="C95" s="95" t="str">
+      <c r="C95" s="107" t="str">
         <f>IF(ISBLANK(Layout!C77), "", Layout!C77)</f>
         <v/>
       </c>
-      <c r="D95" s="101" t="str">
+      <c r="D95" s="95" t="str">
         <f>IF(Layout!D77 &gt;0, $K$12 - E95 - P95, "")</f>
         <v/>
       </c>
@@ -6615,7 +6634,7 @@
         <f>IF(ISBLANK(Layout!M77), "", Layout!M77*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O95" s="102" t="str">
+      <c r="O95" s="96" t="str">
         <f>IF(ISBLANK(Layout!N77), "", Layout!N77*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6625,18 +6644,18 @@
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="67">
+      <c r="A96" s="105">
         <v>76</v>
       </c>
-      <c r="B96" s="34" t="str">
+      <c r="B96" s="106" t="str">
         <f>IF(ISBLANK(Layout!B78), "", Layout!B78)</f>
         <v/>
       </c>
-      <c r="C96" s="95" t="str">
+      <c r="C96" s="107" t="str">
         <f>IF(ISBLANK(Layout!C78), "", Layout!C78)</f>
         <v/>
       </c>
-      <c r="D96" s="101" t="str">
+      <c r="D96" s="95" t="str">
         <f>IF(Layout!D78 &gt;0, $K$12 - E96 - P96, "")</f>
         <v/>
       </c>
@@ -6680,7 +6699,7 @@
         <f>IF(ISBLANK(Layout!M78), "", Layout!M78*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O96" s="102" t="str">
+      <c r="O96" s="96" t="str">
         <f>IF(ISBLANK(Layout!N78), "", Layout!N78*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6690,18 +6709,18 @@
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="67">
+      <c r="A97" s="105">
         <v>77</v>
       </c>
-      <c r="B97" s="34" t="str">
+      <c r="B97" s="106" t="str">
         <f>IF(ISBLANK(Layout!B79), "", Layout!B79)</f>
         <v/>
       </c>
-      <c r="C97" s="95" t="str">
+      <c r="C97" s="107" t="str">
         <f>IF(ISBLANK(Layout!C79), "", Layout!C79)</f>
         <v/>
       </c>
-      <c r="D97" s="101" t="str">
+      <c r="D97" s="95" t="str">
         <f>IF(Layout!D79 &gt;0, $K$12 - E97 - P97, "")</f>
         <v/>
       </c>
@@ -6745,7 +6764,7 @@
         <f>IF(ISBLANK(Layout!M79), "", Layout!M79*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O97" s="102" t="str">
+      <c r="O97" s="96" t="str">
         <f>IF(ISBLANK(Layout!N79), "", Layout!N79*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6755,18 +6774,18 @@
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="67">
+      <c r="A98" s="105">
         <v>78</v>
       </c>
-      <c r="B98" s="34" t="str">
+      <c r="B98" s="106" t="str">
         <f>IF(ISBLANK(Layout!B80), "", Layout!B80)</f>
         <v/>
       </c>
-      <c r="C98" s="95" t="str">
+      <c r="C98" s="107" t="str">
         <f>IF(ISBLANK(Layout!C80), "", Layout!C80)</f>
         <v/>
       </c>
-      <c r="D98" s="101" t="str">
+      <c r="D98" s="95" t="str">
         <f>IF(Layout!D80 &gt;0, $K$12 - E98 - P98, "")</f>
         <v/>
       </c>
@@ -6810,7 +6829,7 @@
         <f>IF(ISBLANK(Layout!M80), "", Layout!M80*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O98" s="102" t="str">
+      <c r="O98" s="96" t="str">
         <f>IF(ISBLANK(Layout!N80), "", Layout!N80*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6820,18 +6839,18 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="67">
+      <c r="A99" s="105">
         <v>79</v>
       </c>
-      <c r="B99" s="34" t="str">
+      <c r="B99" s="106" t="str">
         <f>IF(ISBLANK(Layout!B81), "", Layout!B81)</f>
         <v/>
       </c>
-      <c r="C99" s="95" t="str">
+      <c r="C99" s="107" t="str">
         <f>IF(ISBLANK(Layout!C81), "", Layout!C81)</f>
         <v/>
       </c>
-      <c r="D99" s="101" t="str">
+      <c r="D99" s="95" t="str">
         <f>IF(Layout!D81 &gt;0, $K$12 - E99 - P99, "")</f>
         <v/>
       </c>
@@ -6875,7 +6894,7 @@
         <f>IF(ISBLANK(Layout!M81), "", Layout!M81*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O99" s="102" t="str">
+      <c r="O99" s="96" t="str">
         <f>IF(ISBLANK(Layout!N81), "", Layout!N81*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6885,18 +6904,18 @@
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="67">
+      <c r="A100" s="105">
         <v>80</v>
       </c>
-      <c r="B100" s="34" t="str">
+      <c r="B100" s="106" t="str">
         <f>IF(ISBLANK(Layout!B82), "", Layout!B82)</f>
         <v/>
       </c>
-      <c r="C100" s="95" t="str">
+      <c r="C100" s="107" t="str">
         <f>IF(ISBLANK(Layout!C82), "", Layout!C82)</f>
         <v/>
       </c>
-      <c r="D100" s="101" t="str">
+      <c r="D100" s="95" t="str">
         <f>IF(Layout!D82 &gt;0, $K$12 - E100 - P100, "")</f>
         <v/>
       </c>
@@ -6940,7 +6959,7 @@
         <f>IF(ISBLANK(Layout!M82), "", Layout!M82*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O100" s="102" t="str">
+      <c r="O100" s="96" t="str">
         <f>IF(ISBLANK(Layout!N82), "", Layout!N82*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -6950,18 +6969,18 @@
       </c>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="67">
+      <c r="A101" s="105">
         <v>81</v>
       </c>
-      <c r="B101" s="34" t="str">
+      <c r="B101" s="106" t="str">
         <f>IF(ISBLANK(Layout!B83), "", Layout!B83)</f>
         <v/>
       </c>
-      <c r="C101" s="95" t="str">
+      <c r="C101" s="107" t="str">
         <f>IF(ISBLANK(Layout!C83), "", Layout!C83)</f>
         <v/>
       </c>
-      <c r="D101" s="101" t="str">
+      <c r="D101" s="95" t="str">
         <f>IF(Layout!D83 &gt;0, $K$12 - E101 - P101, "")</f>
         <v/>
       </c>
@@ -7005,7 +7024,7 @@
         <f>IF(ISBLANK(Layout!M83), "", Layout!M83*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O101" s="102" t="str">
+      <c r="O101" s="96" t="str">
         <f>IF(ISBLANK(Layout!N83), "", Layout!N83*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7015,18 +7034,18 @@
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="67">
+      <c r="A102" s="105">
         <v>82</v>
       </c>
-      <c r="B102" s="34" t="str">
+      <c r="B102" s="106" t="str">
         <f>IF(ISBLANK(Layout!B84), "", Layout!B84)</f>
         <v/>
       </c>
-      <c r="C102" s="95" t="str">
+      <c r="C102" s="107" t="str">
         <f>IF(ISBLANK(Layout!C84), "", Layout!C84)</f>
         <v/>
       </c>
-      <c r="D102" s="101" t="str">
+      <c r="D102" s="95" t="str">
         <f>IF(Layout!D84 &gt;0, $K$12 - E102 - P102, "")</f>
         <v/>
       </c>
@@ -7070,7 +7089,7 @@
         <f>IF(ISBLANK(Layout!M84), "", Layout!M84*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O102" s="102" t="str">
+      <c r="O102" s="96" t="str">
         <f>IF(ISBLANK(Layout!N84), "", Layout!N84*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7080,18 +7099,18 @@
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="67">
+      <c r="A103" s="105">
         <v>83</v>
       </c>
-      <c r="B103" s="34" t="str">
+      <c r="B103" s="106" t="str">
         <f>IF(ISBLANK(Layout!B85), "", Layout!B85)</f>
         <v/>
       </c>
-      <c r="C103" s="95" t="str">
+      <c r="C103" s="107" t="str">
         <f>IF(ISBLANK(Layout!C85), "", Layout!C85)</f>
         <v/>
       </c>
-      <c r="D103" s="101" t="str">
+      <c r="D103" s="95" t="str">
         <f>IF(Layout!D85 &gt;0, $K$12 - E103 - P103, "")</f>
         <v/>
       </c>
@@ -7135,7 +7154,7 @@
         <f>IF(ISBLANK(Layout!M85), "", Layout!M85*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O103" s="102" t="str">
+      <c r="O103" s="96" t="str">
         <f>IF(ISBLANK(Layout!N85), "", Layout!N85*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7145,18 +7164,18 @@
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="68">
+      <c r="A104" s="108">
         <v>84</v>
       </c>
-      <c r="B104" s="23" t="str">
+      <c r="B104" s="109" t="str">
         <f>IF(ISBLANK(Layout!B86), "", Layout!B86)</f>
         <v/>
       </c>
-      <c r="C104" s="96" t="str">
+      <c r="C104" s="110" t="str">
         <f>IF(ISBLANK(Layout!C86), "", Layout!C86)</f>
         <v/>
       </c>
-      <c r="D104" s="103" t="str">
+      <c r="D104" s="97" t="str">
         <f>IF(Layout!D86 &gt;0, $K$12 - E104 - P104, "")</f>
         <v/>
       </c>
@@ -7164,43 +7183,43 @@
         <f>IFERROR(Layout!D86*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F104" s="92" t="str">
+      <c r="F104" s="90" t="str">
         <f>IF(ISBLANK(Layout!E86), "", Layout!E86*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G104" s="92" t="str">
+      <c r="G104" s="90" t="str">
         <f>IF(ISBLANK(Layout!F86), "", Layout!F86*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H104" s="92" t="str">
+      <c r="H104" s="90" t="str">
         <f>IF(ISBLANK(Layout!G86), "", Layout!G86*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I104" s="92" t="str">
+      <c r="I104" s="90" t="str">
         <f>IF(ISBLANK(Layout!H86), "", Layout!H86*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J104" s="92" t="str">
+      <c r="J104" s="90" t="str">
         <f>IF(ISBLANK(Layout!I86),"",Layout!I86*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K104" s="92" t="str">
+      <c r="K104" s="90" t="str">
         <f>IF(ISBLANK(Layout!J86), "", Layout!J86*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L104" s="92" t="str">
+      <c r="L104" s="90" t="str">
         <f>IF(ISBLANK(Layout!K86), "", Layout!K86*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M104" s="92" t="str">
+      <c r="M104" s="90" t="str">
         <f>IF(ISBLANK(Layout!L86), "", Layout!L86*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N104" s="92" t="str">
+      <c r="N104" s="90" t="str">
         <f>IF(ISBLANK(Layout!M86), "", Layout!M86*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O104" s="104" t="str">
+      <c r="O104" s="98" t="str">
         <f>IF(ISBLANK(Layout!N86), "", Layout!N86*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7210,18 +7229,18 @@
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="66">
+      <c r="A105" s="102">
         <v>85</v>
       </c>
-      <c r="B105" s="35" t="str">
+      <c r="B105" s="103" t="str">
         <f>IF(ISBLANK(Layout!B87), "", Layout!B87)</f>
         <v/>
       </c>
-      <c r="C105" s="94" t="str">
+      <c r="C105" s="104" t="str">
         <f>IF(ISBLANK(Layout!C87), "", Layout!C87)</f>
         <v/>
       </c>
-      <c r="D105" s="99" t="str">
+      <c r="D105" s="93" t="str">
         <f>IF(Layout!D87 &gt;0, $K$12 - E105 - P105, "")</f>
         <v/>
       </c>
@@ -7229,43 +7248,43 @@
         <f>IFERROR(Layout!D87*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F105" s="91" t="str">
+      <c r="F105" s="89" t="str">
         <f>IF(ISBLANK(Layout!E87), "", Layout!E87*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G105" s="91" t="str">
+      <c r="G105" s="89" t="str">
         <f>IF(ISBLANK(Layout!F87), "", Layout!F87*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H105" s="91" t="str">
+      <c r="H105" s="89" t="str">
         <f>IF(ISBLANK(Layout!G87), "", Layout!G87*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I105" s="91" t="str">
+      <c r="I105" s="89" t="str">
         <f>IF(ISBLANK(Layout!H87), "", Layout!H87*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J105" s="91" t="str">
+      <c r="J105" s="89" t="str">
         <f>IF(ISBLANK(Layout!I87),"",Layout!I87*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K105" s="91" t="str">
+      <c r="K105" s="89" t="str">
         <f>IF(ISBLANK(Layout!J87), "", Layout!J87*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L105" s="91" t="str">
+      <c r="L105" s="89" t="str">
         <f>IF(ISBLANK(Layout!K87), "", Layout!K87*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M105" s="91" t="str">
+      <c r="M105" s="89" t="str">
         <f>IF(ISBLANK(Layout!L87), "", Layout!L87*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N105" s="91" t="str">
+      <c r="N105" s="89" t="str">
         <f>IF(ISBLANK(Layout!M87), "", Layout!M87*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O105" s="100" t="str">
+      <c r="O105" s="94" t="str">
         <f>IF(ISBLANK(Layout!N87), "", Layout!N87*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7275,18 +7294,18 @@
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="67">
+      <c r="A106" s="105">
         <v>86</v>
       </c>
-      <c r="B106" s="34" t="str">
+      <c r="B106" s="106" t="str">
         <f>IF(ISBLANK(Layout!B88), "", Layout!B88)</f>
         <v/>
       </c>
-      <c r="C106" s="95" t="str">
+      <c r="C106" s="107" t="str">
         <f>IF(ISBLANK(Layout!C88), "", Layout!C88)</f>
         <v/>
       </c>
-      <c r="D106" s="101" t="str">
+      <c r="D106" s="95" t="str">
         <f>IF(Layout!D88 &gt;0, $K$12 - E106 - P106, "")</f>
         <v/>
       </c>
@@ -7330,7 +7349,7 @@
         <f>IF(ISBLANK(Layout!M88), "", Layout!M88*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O106" s="102" t="str">
+      <c r="O106" s="96" t="str">
         <f>IF(ISBLANK(Layout!N88), "", Layout!N88*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7340,18 +7359,18 @@
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="67">
+      <c r="A107" s="105">
         <v>87</v>
       </c>
-      <c r="B107" s="34" t="str">
+      <c r="B107" s="106" t="str">
         <f>IF(ISBLANK(Layout!B89), "", Layout!B89)</f>
         <v/>
       </c>
-      <c r="C107" s="95" t="str">
+      <c r="C107" s="107" t="str">
         <f>IF(ISBLANK(Layout!C89), "", Layout!C89)</f>
         <v/>
       </c>
-      <c r="D107" s="101" t="str">
+      <c r="D107" s="95" t="str">
         <f>IF(Layout!D89 &gt;0, $K$12 - E107 - P107, "")</f>
         <v/>
       </c>
@@ -7395,7 +7414,7 @@
         <f>IF(ISBLANK(Layout!M89), "", Layout!M89*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O107" s="102" t="str">
+      <c r="O107" s="96" t="str">
         <f>IF(ISBLANK(Layout!N89), "", Layout!N89*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7405,18 +7424,18 @@
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="67">
+      <c r="A108" s="105">
         <v>88</v>
       </c>
-      <c r="B108" s="34" t="str">
+      <c r="B108" s="106" t="str">
         <f>IF(ISBLANK(Layout!B90), "", Layout!B90)</f>
         <v/>
       </c>
-      <c r="C108" s="95" t="str">
+      <c r="C108" s="107" t="str">
         <f>IF(ISBLANK(Layout!C90), "", Layout!C90)</f>
         <v/>
       </c>
-      <c r="D108" s="101" t="str">
+      <c r="D108" s="95" t="str">
         <f>IF(Layout!D90 &gt;0, $K$12 - E108 - P108, "")</f>
         <v/>
       </c>
@@ -7460,7 +7479,7 @@
         <f>IF(ISBLANK(Layout!M90), "", Layout!M90*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O108" s="102" t="str">
+      <c r="O108" s="96" t="str">
         <f>IF(ISBLANK(Layout!N90), "", Layout!N90*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7470,18 +7489,18 @@
       </c>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="67">
+      <c r="A109" s="105">
         <v>89</v>
       </c>
-      <c r="B109" s="34" t="str">
+      <c r="B109" s="106" t="str">
         <f>IF(ISBLANK(Layout!B91), "", Layout!B91)</f>
         <v/>
       </c>
-      <c r="C109" s="95" t="str">
+      <c r="C109" s="107" t="str">
         <f>IF(ISBLANK(Layout!C91), "", Layout!C91)</f>
         <v/>
       </c>
-      <c r="D109" s="101" t="str">
+      <c r="D109" s="95" t="str">
         <f>IF(Layout!D91 &gt;0, $K$12 - E109 - P109, "")</f>
         <v/>
       </c>
@@ -7525,7 +7544,7 @@
         <f>IF(ISBLANK(Layout!M91), "", Layout!M91*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O109" s="102" t="str">
+      <c r="O109" s="96" t="str">
         <f>IF(ISBLANK(Layout!N91), "", Layout!N91*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7535,18 +7554,18 @@
       </c>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="67">
+      <c r="A110" s="105">
         <v>90</v>
       </c>
-      <c r="B110" s="34" t="str">
+      <c r="B110" s="106" t="str">
         <f>IF(ISBLANK(Layout!B92), "", Layout!B92)</f>
         <v/>
       </c>
-      <c r="C110" s="95" t="str">
+      <c r="C110" s="107" t="str">
         <f>IF(ISBLANK(Layout!C92), "", Layout!C92)</f>
         <v/>
       </c>
-      <c r="D110" s="101" t="str">
+      <c r="D110" s="95" t="str">
         <f>IF(Layout!D92 &gt;0, $K$12 - E110 - P110, "")</f>
         <v/>
       </c>
@@ -7590,7 +7609,7 @@
         <f>IF(ISBLANK(Layout!M92), "", Layout!M92*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O110" s="102" t="str">
+      <c r="O110" s="96" t="str">
         <f>IF(ISBLANK(Layout!N92), "", Layout!N92*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7600,18 +7619,18 @@
       </c>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="67">
+      <c r="A111" s="105">
         <v>91</v>
       </c>
-      <c r="B111" s="34" t="str">
+      <c r="B111" s="106" t="str">
         <f>IF(ISBLANK(Layout!B93), "", Layout!B93)</f>
         <v/>
       </c>
-      <c r="C111" s="95" t="str">
+      <c r="C111" s="107" t="str">
         <f>IF(ISBLANK(Layout!C93), "", Layout!C93)</f>
         <v/>
       </c>
-      <c r="D111" s="101" t="str">
+      <c r="D111" s="95" t="str">
         <f>IF(Layout!D93 &gt;0, $K$12 - E111 - P111, "")</f>
         <v/>
       </c>
@@ -7655,7 +7674,7 @@
         <f>IF(ISBLANK(Layout!M93), "", Layout!M93*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O111" s="102" t="str">
+      <c r="O111" s="96" t="str">
         <f>IF(ISBLANK(Layout!N93), "", Layout!N93*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7665,18 +7684,18 @@
       </c>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="67">
+      <c r="A112" s="105">
         <v>92</v>
       </c>
-      <c r="B112" s="34" t="str">
+      <c r="B112" s="106" t="str">
         <f>IF(ISBLANK(Layout!B94), "", Layout!B94)</f>
         <v/>
       </c>
-      <c r="C112" s="95" t="str">
+      <c r="C112" s="107" t="str">
         <f>IF(ISBLANK(Layout!C94), "", Layout!C94)</f>
         <v/>
       </c>
-      <c r="D112" s="101" t="str">
+      <c r="D112" s="95" t="str">
         <f>IF(Layout!D94 &gt;0, $K$12 - E112 - P112, "")</f>
         <v/>
       </c>
@@ -7720,7 +7739,7 @@
         <f>IF(ISBLANK(Layout!M94), "", Layout!M94*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O112" s="102" t="str">
+      <c r="O112" s="96" t="str">
         <f>IF(ISBLANK(Layout!N94), "", Layout!N94*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7730,18 +7749,18 @@
       </c>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="67">
+      <c r="A113" s="105">
         <v>93</v>
       </c>
-      <c r="B113" s="34" t="str">
+      <c r="B113" s="106" t="str">
         <f>IF(ISBLANK(Layout!B95), "", Layout!B95)</f>
         <v/>
       </c>
-      <c r="C113" s="95" t="str">
+      <c r="C113" s="107" t="str">
         <f>IF(ISBLANK(Layout!C95), "", Layout!C95)</f>
         <v/>
       </c>
-      <c r="D113" s="101" t="str">
+      <c r="D113" s="95" t="str">
         <f>IF(Layout!D95 &gt;0, $K$12 - E113 - P113, "")</f>
         <v/>
       </c>
@@ -7785,7 +7804,7 @@
         <f>IF(ISBLANK(Layout!M95), "", Layout!M95*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O113" s="102" t="str">
+      <c r="O113" s="96" t="str">
         <f>IF(ISBLANK(Layout!N95), "", Layout!N95*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7795,18 +7814,18 @@
       </c>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="67">
+      <c r="A114" s="105">
         <v>94</v>
       </c>
-      <c r="B114" s="34" t="str">
+      <c r="B114" s="106" t="str">
         <f>IF(ISBLANK(Layout!B96), "", Layout!B96)</f>
         <v/>
       </c>
-      <c r="C114" s="95" t="str">
+      <c r="C114" s="107" t="str">
         <f>IF(ISBLANK(Layout!C96), "", Layout!C96)</f>
         <v/>
       </c>
-      <c r="D114" s="101" t="str">
+      <c r="D114" s="95" t="str">
         <f>IF(Layout!D96 &gt;0, $K$12 - E114 - P114, "")</f>
         <v/>
       </c>
@@ -7850,7 +7869,7 @@
         <f>IF(ISBLANK(Layout!M96), "", Layout!M96*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O114" s="102" t="str">
+      <c r="O114" s="96" t="str">
         <f>IF(ISBLANK(Layout!N96), "", Layout!N96*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7860,18 +7879,18 @@
       </c>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="67">
+      <c r="A115" s="105">
         <v>95</v>
       </c>
-      <c r="B115" s="34" t="str">
+      <c r="B115" s="106" t="str">
         <f>IF(ISBLANK(Layout!B97), "", Layout!B97)</f>
         <v/>
       </c>
-      <c r="C115" s="95" t="str">
+      <c r="C115" s="107" t="str">
         <f>IF(ISBLANK(Layout!C97), "", Layout!C97)</f>
         <v/>
       </c>
-      <c r="D115" s="101" t="str">
+      <c r="D115" s="95" t="str">
         <f>IF(Layout!D97 &gt;0, $K$12 - E115 - P115, "")</f>
         <v/>
       </c>
@@ -7915,7 +7934,7 @@
         <f>IF(ISBLANK(Layout!M97), "", Layout!M97*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O115" s="102" t="str">
+      <c r="O115" s="96" t="str">
         <f>IF(ISBLANK(Layout!N97), "", Layout!N97*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -7925,18 +7944,18 @@
       </c>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="68">
+      <c r="A116" s="108">
         <v>96</v>
       </c>
-      <c r="B116" s="23" t="str">
+      <c r="B116" s="109" t="str">
         <f>IF(ISBLANK(Layout!B98), "", Layout!B98)</f>
         <v/>
       </c>
-      <c r="C116" s="96" t="str">
+      <c r="C116" s="110" t="str">
         <f>IF(ISBLANK(Layout!C98), "", Layout!C98)</f>
         <v/>
       </c>
-      <c r="D116" s="103" t="str">
+      <c r="D116" s="97" t="str">
         <f>IF(Layout!D98 &gt;0, $K$12 - E116 - P116, "")</f>
         <v/>
       </c>
@@ -7944,43 +7963,43 @@
         <f>IFERROR(Layout!D98*SUM($D$12:$D$17), "")</f>
         <v>0</v>
       </c>
-      <c r="F116" s="92" t="str">
+      <c r="F116" s="90" t="str">
         <f>IF(ISBLANK(Layout!E98), "", Layout!E98*$K$12/Stocks!$E$3)</f>
         <v/>
       </c>
-      <c r="G116" s="92" t="str">
+      <c r="G116" s="90" t="str">
         <f>IF(ISBLANK(Layout!F98), "", Layout!F98*$K$12/Stocks!$E$4)</f>
         <v/>
       </c>
-      <c r="H116" s="92" t="str">
+      <c r="H116" s="90" t="str">
         <f>IF(ISBLANK(Layout!G98), "", Layout!G98*$K$12/Stocks!$E$5)</f>
         <v/>
       </c>
-      <c r="I116" s="92" t="str">
+      <c r="I116" s="90" t="str">
         <f>IF(ISBLANK(Layout!H98), "", Layout!H98*$K$12/Stocks!$E$6)</f>
         <v/>
       </c>
-      <c r="J116" s="92" t="str">
+      <c r="J116" s="90" t="str">
         <f>IF(ISBLANK(Layout!I98),"",Layout!I98*$K$12/Stocks!$E$7)</f>
         <v/>
       </c>
-      <c r="K116" s="92" t="str">
+      <c r="K116" s="90" t="str">
         <f>IF(ISBLANK(Layout!J98), "", Layout!J98*$K$12/Stocks!$E$8)</f>
         <v/>
       </c>
-      <c r="L116" s="92" t="str">
+      <c r="L116" s="90" t="str">
         <f>IF(ISBLANK(Layout!K98), "", Layout!K98*$K$12/Stocks!$E$9)</f>
         <v/>
       </c>
-      <c r="M116" s="92" t="str">
+      <c r="M116" s="90" t="str">
         <f>IF(ISBLANK(Layout!L98), "", Layout!L98*$K$12/Stocks!$E$10)</f>
         <v/>
       </c>
-      <c r="N116" s="92" t="str">
+      <c r="N116" s="90" t="str">
         <f>IF(ISBLANK(Layout!M98), "", Layout!M98*$K$12/Stocks!$E$11)</f>
         <v/>
       </c>
-      <c r="O116" s="104" t="str">
+      <c r="O116" s="98" t="str">
         <f>IF(ISBLANK(Layout!N98), "", Layout!N98*$K$12/Stocks!$E$12)</f>
         <v/>
       </c>
@@ -8122,13 +8141,13 @@
         <v>3202</v>
       </c>
       <c r="E3" s="47">
-        <f>IFERROR(IF(D3=0,C3,1/(D3*660/1000000/C3)),"")</f>
+        <f t="shared" ref="E3:E12" si="0">IFERROR(IF(D3=0,C3,1/(D3*660/1000000/C3)),"")</f>
         <v>8.9905930005867543</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -8141,13 +8160,13 @@
         <v>4242</v>
       </c>
       <c r="E4" s="46">
-        <f>IFERROR(IF(D4=0,C4,1/(D4*660/1000000/C4)),"")</f>
+        <f t="shared" si="0"/>
         <v>16.073035875016071</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="54">
-        <f>A4+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -8161,13 +8180,13 @@
         <v>4242</v>
       </c>
       <c r="E5" s="50">
-        <f>IFERROR(IF(D5=0,C5,1/(D5*660/1000000/C5)),"")</f>
+        <f t="shared" si="0"/>
         <v>8.0365179375080356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="54">
-        <f>A5+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -8181,13 +8200,13 @@
         <v>4242</v>
       </c>
       <c r="E6" s="50">
-        <f>IFERROR(IF(D6=0,C6,1/(D6*660/1000000/C6)),"")</f>
+        <f t="shared" si="0"/>
         <v>4.0182589687540178</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="54">
-        <f>A6+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -8200,13 +8219,13 @@
         <v>5555</v>
       </c>
       <c r="E7" s="50">
-        <f>IFERROR(IF(D7=0,C7,1/(D7*660/1000000/C7)),"")</f>
+        <f t="shared" si="0"/>
         <v>8.72814554182691</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="54">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -8220,13 +8239,13 @@
         <v>5555</v>
       </c>
       <c r="E8" s="50">
-        <f>IFERROR(IF(D8=0,C8,1/(D8*660/1000000/C8)),"")</f>
+        <f t="shared" si="0"/>
         <v>4.364072770913455</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="54">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -8240,46 +8259,46 @@
         <v>5555</v>
       </c>
       <c r="E9" s="50">
-        <f>IFERROR(IF(D9=0,C9,1/(D9*660/1000000/C9)),"")</f>
+        <f t="shared" si="0"/>
         <v>2.1820363854567275</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="54">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="50">
-        <f>IFERROR(IF(D10=0,C10,1/(D10*660/1000000/C10)),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="54">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="41"/>
       <c r="D11" s="42"/>
       <c r="E11" s="50">
-        <f>IFERROR(IF(D11=0,C11,1/(D11*660/1000000/C11)),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="55">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
       <c r="D12" s="45"/>
       <c r="E12" s="51">
-        <f>IFERROR(IF(D12=0,C12,1/(D12*660/1000000/C12)),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8298,7 +8317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/TXTL_template_2.1.xlsx
+++ b/TXTL_template_2.1.xlsx
@@ -152,12 +152,6 @@
     <t>Rxn Volume</t>
   </si>
   <si>
-    <t>Per Rxn (µL)</t>
-  </si>
-  <si>
-    <t>Master Mix (µL)</t>
-  </si>
-  <si>
     <t>Magic Numbers</t>
   </si>
   <si>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>CFP 1/4nM, RFP 1/4nM</t>
+  </si>
+  <si>
+    <t>Per Rxn (uL)</t>
+  </si>
+  <si>
+    <t>Master Mix (uL)</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1512,7 +1512,7 @@
       <c r="D10" s="3"/>
       <c r="J10" s="16"/>
       <c r="K10" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -1530,10 +1530,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1545,10 +1545,10 @@
         <v>32</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="1">
@@ -8151,7 +8151,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="38">
         <v>45</v>
@@ -8170,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="41">
         <f>C4/2</f>
@@ -8190,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="41">
         <f>C5/2</f>
@@ -8210,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="41">
         <v>32</v>
@@ -8229,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="41">
         <f>C7/2</f>
@@ -8249,7 +8249,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="41">
         <f>C8/2</f>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>23</v>
@@ -8429,10 +8429,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="80">
         <v>1</v>
@@ -8457,10 +8457,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="80">
         <v>1</v>
@@ -8485,10 +8485,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="80">
         <v>1</v>
@@ -8513,10 +8513,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="80">
         <v>1</v>
@@ -8541,10 +8541,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="80">
         <v>1</v>
@@ -8569,10 +8569,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="80">
         <v>1</v>
@@ -8597,10 +8597,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="80">
         <v>1</v>
@@ -8625,10 +8625,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="80">
         <v>1</v>
@@ -8653,10 +8653,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="80">
         <v>1</v>

--- a/TXTL_template_2.1.xlsx
+++ b/TXTL_template_2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="2" r:id="rId1"/>
@@ -493,7 +493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="153">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,6 +611,8 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -906,7 +908,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -982,6 +984,7 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1057,6 +1060,7 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
@@ -1440,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1649,7 +1653,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="31">
-        <f>CEILING(I12/7, 1)</f>
+        <f>CEILING(I12*$K$12/(7*10), 1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1672,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="31">
-        <f>CEILING(I12/7, 1)</f>
+        <f>CEILING($I$12*$K$12/(7*10), 1)</f>
         <v>2</v>
       </c>
     </row>
@@ -8323,7 +8327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
